--- a/DatenTabelle.xlsx
+++ b/DatenTabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvormwald\Desktop\Game2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F127F557-5B14-4305-9862-817641640066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA42A9F-123A-4A6D-9726-AAE4BBDF215B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E071448A-2F4A-4DEF-90F1-CE40447B3B47}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E071448A-2F4A-4DEF-90F1-CE40447B3B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>upgrade max hp</t>
   </si>
@@ -52,13 +52,22 @@
     <t>health pack up</t>
   </si>
   <si>
-    <t>auto reg up</t>
-  </si>
-  <si>
     <t>WERT (alle x sek)</t>
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>auto reg up time</t>
+  </si>
+  <si>
+    <t>WERT (pro wiederholung)</t>
+  </si>
+  <si>
+    <t>auto reg up amount</t>
+  </si>
+  <si>
+    <t>1.5 + (self.player.auto_reg_amount/1.8)*(self.player.auto_reg_amount/45)</t>
   </si>
 </sst>
 </file>
@@ -66,9 +75,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +89,12 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -103,11 +118,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4359,6 +4377,1330 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>auto reg up amount</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$N$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WERT (pro wiederholung)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$N$15:$N$115</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1700000000000008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.7899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.46</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.890000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24.180000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24.990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>26.61</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27.42</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>28.23</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>29.040000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29.85</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30.66</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31.470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32.28</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>34.71</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>35.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>36.33</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>37.14</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>38.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>39.57</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>40.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41.190000000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42.81</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43.620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45.24</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>46.05</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>46.860000000000007</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>47.67</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>48.480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>49.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>50.910000000000004</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>51.72</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>52.530000000000008</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>53.34</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>54.15</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>54.96</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>55.77</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>56.580000000000005</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>57.39</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>58.2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>59.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>59.82</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>60.63</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>61.440000000000005</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>62.25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>63.06</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>63.870000000000005</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>64.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>65.490000000000009</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>66.3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>67.11</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>67.92</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>68.73</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>69.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>70.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>71.16</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>71.970000000000013</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>72.78</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>73.59</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>74.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>75.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>76.02000000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>76.830000000000013</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>77.64</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>78.45</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>79.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>80.070000000000007</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>80.88000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>81.69</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>82.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AFA-4B43-9D57-B278532DDC06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$O$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KOSTEN </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$O$15:$O$115</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5658777777777777</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>27.587200000000003</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>49.092449999999999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>76.113800000000012</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>108.65124999999999</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>146.70480000000001</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>190.27445000000003</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>239.36020000000002</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>293.96204999999998</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>354.08</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>419.71404999999999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>490.86420000000004</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>567.53045000000009</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>649.71280000000013</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>737.41125000000011</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>830.62580000000014</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>929.35645</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>1033.6032</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>1143.3660500000003</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>1258.6449999999998</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>1379.4400499999999</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>1505.7511999999999</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>1637.5784500000002</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>1774.9218000000001</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>1917.78125</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00">
+                  <c:v>2066.1568000000002</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>2220.0484500000002</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00">
+                  <c:v>2379.4562000000005</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00">
+                  <c:v>2544.3800500000002</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>2714.82</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00">
+                  <c:v>2890.7760499999999</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00">
+                  <c:v>3072.2482000000005</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.00">
+                  <c:v>3259.2364499999999</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.00">
+                  <c:v>3451.7408</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.00">
+                  <c:v>3649.76125</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.00">
+                  <c:v>3853.2977999999998</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00">
+                  <c:v>4062.3504500000004</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00">
+                  <c:v>4276.9191999999994</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00">
+                  <c:v>4497.0040500000014</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00">
+                  <c:v>4722.6049999999996</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.00">
+                  <c:v>4953.7220499999994</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.00">
+                  <c:v>5190.3552</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.00">
+                  <c:v>5432.5044499999995</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0.00">
+                  <c:v>5680.1697999999997</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.00">
+                  <c:v>5933.3512500000006</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.00">
+                  <c:v>6192.0488000000005</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.00">
+                  <c:v>6456.2624500000002</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>6725.9922000000006</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00">
+                  <c:v>7001.2380500000008</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00">
+                  <c:v>7282</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00">
+                  <c:v>7568.2780500000008</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00">
+                  <c:v>7860.0722000000005</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00">
+                  <c:v>8157.382450000001</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.00">
+                  <c:v>8460.2088000000003</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.00">
+                  <c:v>8768.5512500000004</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.00">
+                  <c:v>9082.4098000000013</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.00">
+                  <c:v>9401.784450000001</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.00">
+                  <c:v>9726.6752000000015</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.00">
+                  <c:v>10057.082050000001</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.00">
+                  <c:v>10393.005000000001</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.00">
+                  <c:v>10734.444050000002</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00">
+                  <c:v>11081.3992</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00">
+                  <c:v>11433.870450000002</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="0.00">
+                  <c:v>11791.857800000002</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.00">
+                  <c:v>12155.36125</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.00">
+                  <c:v>12524.380799999999</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0.00">
+                  <c:v>12898.916450000001</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.00">
+                  <c:v>13278.968200000001</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.00">
+                  <c:v>13664.536050000001</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0.00">
+                  <c:v>14055.62</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.00">
+                  <c:v>14452.220050000002</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.00">
+                  <c:v>14854.3362</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.00">
+                  <c:v>15261.96845</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="0.00">
+                  <c:v>15675.116800000002</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.00">
+                  <c:v>16093.78125</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.00">
+                  <c:v>16517.961799999997</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.00">
+                  <c:v>16947.658450000003</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0.00">
+                  <c:v>17382.871200000005</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="0.00">
+                  <c:v>17823.600050000005</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.00">
+                  <c:v>18269.844999999998</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.00">
+                  <c:v>18721.606049999999</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="0.00">
+                  <c:v>19178.8832</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="0.00">
+                  <c:v>19641.676450000003</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="0.00">
+                  <c:v>20109.985800000002</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="0.00">
+                  <c:v>20583.811249999999</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="0.00">
+                  <c:v>21063.152799999996</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="0.00">
+                  <c:v>21548.010450000005</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="0.00">
+                  <c:v>22038.3842</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="0.00">
+                  <c:v>22534.274050000004</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="0.00">
+                  <c:v>23035.68</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="0.00">
+                  <c:v>23542.602049999998</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="0.00">
+                  <c:v>24055.040200000003</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="0.00">
+                  <c:v>24572.994450000006</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="0.00">
+                  <c:v>25096.464799999998</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="0.00">
+                  <c:v>25625.451250000002</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="0.00">
+                  <c:v>26159.953800000003</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="0.00">
+                  <c:v>26699.972450000005</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="0.00">
+                  <c:v>27245.507200000004</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="0.00">
+                  <c:v>27796.558050000003</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="0.00">
+                  <c:v>28353.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3AFA-4B43-9D57-B278532DDC06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="203327039"/>
+        <c:axId val="203325791"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$M$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>LVL</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$M$15:$M$115</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="101"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-3AFA-4B43-9D57-B278532DDC06}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="203327039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="203325791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="203325791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="203327039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -4434,6 +5776,43 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -6018,6 +7397,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6127,6 +8022,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>8467</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>173103</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12258</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9BFE16E-16D6-442F-B5ED-4E7085C4A54F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6434,18 +8367,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C34C44D-A5A2-4DA5-BFBD-3BDB16403E2F}">
   <dimension ref="A13:Z115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="K14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -6453,10 +8386,13 @@
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="M13" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -6479,13 +8415,25 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K14" t="s">
         <v>3</v>
       </c>
+      <c r="M14" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15.6" outlineLevel="1">
       <c r="A15">
         <v>0</v>
       </c>
@@ -6520,11 +8468,22 @@
         <v>21.125</v>
       </c>
       <c r="L15" s="3"/>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <f>1.5+(M15*0.95)+(M15/100)</f>
+        <v>1.5</v>
+      </c>
+      <c r="O15" s="1">
+        <f xml:space="preserve"> (N15*0.5) *N15+(M15*2)</f>
+        <v>1.125</v>
+      </c>
       <c r="Z15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15.6" outlineLevel="1">
       <c r="A16">
         <v>1</v>
       </c>
@@ -6558,13 +8517,24 @@
         <v>42.619411937716265</v>
       </c>
       <c r="L16" s="3"/>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" ref="N16:N79" si="4">1.5+(M16*0.8)+(M16/100)</f>
+        <v>2.3099999999999996</v>
+      </c>
+      <c r="O16" s="2">
+        <f>1.5 + (N16/1.8) * (N16/45)</f>
+        <v>1.5658777777777777</v>
+      </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17">
-        <f t="shared" ref="B17:B80" si="4">(A17*2+1)*0.2378+(A17*2.5)</f>
+        <f t="shared" ref="B17:B80" si="5">(A17*2+1)*0.2378+(A17*2.5)</f>
         <v>6.1890000000000001</v>
       </c>
       <c r="C17" s="1">
@@ -6593,13 +8563,24 @@
         <v>64.095591003460214</v>
       </c>
       <c r="L17" s="3"/>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="4"/>
+        <v>3.12</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" ref="O17:O79" si="6" xml:space="preserve"> ((N17*0.5)+(M17*3)) *N17+(M17*2)</f>
+        <v>27.587200000000003</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.1646000000000001</v>
       </c>
       <c r="C18" s="1">
@@ -6628,13 +8609,24 @@
         <v>85.542955190311432</v>
       </c>
       <c r="L18" s="3"/>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="4"/>
+        <v>3.93</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="6"/>
+        <v>49.092449999999999</v>
+      </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A19">
         <v>4</v>
       </c>
       <c r="B19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.1402</v>
       </c>
       <c r="C19" s="1">
@@ -6663,13 +8655,24 @@
         <v>106.95092664359862</v>
       </c>
       <c r="L19" s="3"/>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="4"/>
+        <v>4.74</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="6"/>
+        <v>76.113800000000012</v>
+      </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A20">
         <v>5</v>
       </c>
       <c r="B20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.1158</v>
       </c>
       <c r="C20" s="1">
@@ -6698,13 +8701,24 @@
         <v>128.30893166089965</v>
       </c>
       <c r="L20" s="3"/>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="4"/>
+        <v>5.55</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="6"/>
+        <v>108.65124999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A21">
         <v>6</v>
       </c>
       <c r="B21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.0914</v>
       </c>
       <c r="C21" s="1">
@@ -6733,13 +8747,24 @@
         <v>149.60640069204152</v>
       </c>
       <c r="L21" s="3"/>
+      <c r="M21">
+        <v>6</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="4"/>
+        <v>6.36</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="6"/>
+        <v>146.70480000000001</v>
+      </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A22">
         <v>7</v>
       </c>
       <c r="B22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.067</v>
       </c>
       <c r="C22" s="1">
@@ -6768,13 +8793,24 @@
         <v>170.83276833910034</v>
       </c>
       <c r="L22" s="3"/>
+      <c r="M22">
+        <v>7</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="4"/>
+        <v>7.1700000000000008</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="6"/>
+        <v>190.27445000000003</v>
+      </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A23">
         <v>8</v>
       </c>
       <c r="B23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.0426</v>
       </c>
       <c r="C23" s="1">
@@ -6803,13 +8839,24 @@
         <v>191.97747335640136</v>
       </c>
       <c r="L23" s="3"/>
+      <c r="M23">
+        <v>8</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="4"/>
+        <v>7.98</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="6"/>
+        <v>239.36020000000002</v>
+      </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A24">
         <v>9</v>
       </c>
       <c r="B24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.0182</v>
       </c>
       <c r="C24" s="1">
@@ -6838,13 +8885,24 @@
         <v>213.02995865051903</v>
       </c>
       <c r="L24" s="3"/>
+      <c r="M24">
+        <v>9</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="4"/>
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="6"/>
+        <v>293.96204999999998</v>
+      </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A25">
         <v>10</v>
       </c>
       <c r="B25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.9938</v>
       </c>
       <c r="C25" s="1">
@@ -6873,13 +8931,24 @@
         <v>233.97967128027682</v>
       </c>
       <c r="L25" s="3"/>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="4"/>
+        <v>9.6</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="6"/>
+        <v>354.08</v>
+      </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A26">
         <v>11</v>
       </c>
       <c r="B26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32.9694</v>
       </c>
       <c r="C26" s="1">
@@ -6908,13 +8977,24 @@
         <v>254.81606245674737</v>
       </c>
       <c r="L26" s="3"/>
+      <c r="M26">
+        <v>11</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="4"/>
+        <v>10.41</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="6"/>
+        <v>419.71404999999999</v>
+      </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A27">
         <v>12</v>
       </c>
       <c r="B27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35.945</v>
       </c>
       <c r="C27" s="1">
@@ -6943,13 +9023,24 @@
         <v>275.52858754325257</v>
       </c>
       <c r="L27" s="3"/>
+      <c r="M27">
+        <v>12</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="4"/>
+        <v>11.22</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="6"/>
+        <v>490.86420000000004</v>
+      </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A28">
         <v>13</v>
       </c>
       <c r="B28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38.9206</v>
       </c>
       <c r="C28" s="1">
@@ -6978,13 +9069,24 @@
         <v>296.1067060553633</v>
       </c>
       <c r="L28" s="3"/>
+      <c r="M28">
+        <v>13</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="4"/>
+        <v>12.030000000000001</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="6"/>
+        <v>567.53045000000009</v>
+      </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A29">
         <v>14</v>
       </c>
       <c r="B29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41.8962</v>
       </c>
       <c r="C29" s="1">
@@ -7013,13 +9115,24 @@
         <v>316.53988166089965</v>
       </c>
       <c r="L29" s="3"/>
+      <c r="M29">
+        <v>14</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="4"/>
+        <v>12.840000000000002</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="6"/>
+        <v>649.71280000000013</v>
+      </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A30">
         <v>15</v>
       </c>
       <c r="B30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44.8718</v>
       </c>
       <c r="C30" s="1">
@@ -7048,13 +9161,24 @@
         <v>336.81758217993081</v>
       </c>
       <c r="L30" s="3"/>
+      <c r="M30">
+        <v>15</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="4"/>
+        <v>13.65</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="6"/>
+        <v>737.41125000000011</v>
+      </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A31">
         <v>16</v>
       </c>
       <c r="B31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47.8474</v>
       </c>
       <c r="C31" s="1">
@@ -7083,13 +9207,24 @@
         <v>356.92927958477509</v>
       </c>
       <c r="L31" s="3"/>
+      <c r="M31">
+        <v>16</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" si="4"/>
+        <v>14.46</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="6"/>
+        <v>830.62580000000014</v>
+      </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A32">
         <v>17</v>
       </c>
       <c r="B32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50.823</v>
       </c>
       <c r="C32" s="1">
@@ -7118,13 +9253,24 @@
         <v>376.86444999999998</v>
       </c>
       <c r="L32" s="3"/>
+      <c r="M32">
+        <v>17</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="4"/>
+        <v>15.270000000000001</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="6"/>
+        <v>929.35645</v>
+      </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A33">
         <v>18</v>
       </c>
       <c r="B33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.7986</v>
       </c>
       <c r="C33" s="1">
@@ -7153,13 +9299,24 @@
         <v>396.61257370242214</v>
       </c>
       <c r="L33" s="3"/>
+      <c r="M33">
+        <v>18</v>
+      </c>
+      <c r="N33" s="2">
+        <f t="shared" si="4"/>
+        <v>16.080000000000002</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="6"/>
+        <v>1033.6032</v>
+      </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A34">
         <v>19</v>
       </c>
       <c r="B34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.7742</v>
       </c>
       <c r="C34" s="1">
@@ -7188,13 +9345,24 @@
         <v>416.16313512110725</v>
       </c>
       <c r="L34" s="3"/>
+      <c r="M34">
+        <v>19</v>
+      </c>
+      <c r="N34" s="2">
+        <f t="shared" si="4"/>
+        <v>16.890000000000004</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="6"/>
+        <v>1143.3660500000003</v>
+      </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A35">
         <v>20</v>
       </c>
       <c r="B35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.7498</v>
       </c>
       <c r="C35" s="1">
@@ -7223,13 +9391,24 @@
         <v>435.50562283737025</v>
       </c>
       <c r="L35" s="3"/>
+      <c r="M35">
+        <v>20</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="4"/>
+        <v>17.7</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="6"/>
+        <v>1258.6449999999998</v>
+      </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A36">
         <v>21</v>
       </c>
       <c r="B36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.7254</v>
       </c>
       <c r="C36" s="1">
@@ -7258,13 +9437,24 @@
         <v>454.62952958477507</v>
       </c>
       <c r="L36" s="3"/>
+      <c r="M36">
+        <v>21</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="4"/>
+        <v>18.510000000000002</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="6"/>
+        <v>1379.4400499999999</v>
+      </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A37">
         <v>22</v>
       </c>
       <c r="B37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.700999999999993</v>
       </c>
       <c r="C37" s="1">
@@ -7293,13 +9483,24 @@
         <v>473.52435224913495</v>
       </c>
       <c r="L37" s="3"/>
+      <c r="M37">
+        <v>22</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="4"/>
+        <v>19.32</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="6"/>
+        <v>1505.7511999999999</v>
+      </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A38">
         <v>23</v>
       </c>
       <c r="B38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.676600000000008</v>
       </c>
       <c r="C38" s="1">
@@ -7328,13 +9529,24 @@
         <v>492.17959186851209</v>
       </c>
       <c r="L38" s="3"/>
+      <c r="M38">
+        <v>23</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="4"/>
+        <v>20.130000000000003</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="6"/>
+        <v>1637.5784500000002</v>
+      </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A39">
         <v>24</v>
       </c>
       <c r="B39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>71.652199999999993</v>
       </c>
       <c r="C39" s="1">
@@ -7363,13 +9575,24 @@
         <v>510.58475363321799</v>
       </c>
       <c r="L39" s="3"/>
+      <c r="M39">
+        <v>24</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="4"/>
+        <v>20.94</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="6"/>
+        <v>1774.9218000000001</v>
+      </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A40">
         <v>25</v>
       </c>
       <c r="B40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74.627800000000008</v>
       </c>
       <c r="C40" s="1">
@@ -7398,13 +9621,24 @@
         <v>528.72934688581313</v>
       </c>
       <c r="L40" s="3"/>
+      <c r="M40">
+        <v>25</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="4"/>
+        <v>21.75</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="6"/>
+        <v>1917.78125</v>
+      </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A41">
         <v>26</v>
       </c>
       <c r="B41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>77.603399999999993</v>
       </c>
       <c r="C41" s="1">
@@ -7433,13 +9667,24 @@
         <v>546.60288512110719</v>
       </c>
       <c r="L41" s="3"/>
+      <c r="M41">
+        <v>26</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="4"/>
+        <v>22.560000000000002</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="6"/>
+        <v>2066.1568000000002</v>
+      </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A42">
         <v>27</v>
       </c>
       <c r="B42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80.579000000000008</v>
       </c>
       <c r="C42" s="1">
@@ -7468,13 +9713,24 @@
         <v>564.19488598615908</v>
       </c>
       <c r="L42" s="3"/>
+      <c r="M42">
+        <v>27</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="4"/>
+        <v>23.37</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="6"/>
+        <v>2220.0484500000002</v>
+      </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A43">
         <v>28</v>
       </c>
       <c r="B43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>83.554599999999994</v>
       </c>
       <c r="C43" s="1">
@@ -7503,13 +9759,24 @@
         <v>581.49487128027681</v>
       </c>
       <c r="L43" s="3"/>
+      <c r="M43">
+        <v>28</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="4"/>
+        <v>24.180000000000003</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="6"/>
+        <v>2379.4562000000005</v>
+      </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A44">
         <v>29</v>
       </c>
       <c r="B44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86.530200000000008</v>
       </c>
       <c r="C44" s="1">
@@ -7538,13 +9805,24 @@
         <v>598.49236695501736</v>
       </c>
       <c r="L44" s="3"/>
+      <c r="M44">
+        <v>29</v>
+      </c>
+      <c r="N44" s="2">
+        <f t="shared" si="4"/>
+        <v>24.990000000000002</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="6"/>
+        <v>2544.3800500000002</v>
+      </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A45">
         <v>30</v>
       </c>
       <c r="B45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89.505799999999994</v>
       </c>
       <c r="C45" s="1">
@@ -7573,13 +9851,24 @@
         <v>615.17690311418687</v>
       </c>
       <c r="L45" s="3"/>
+      <c r="M45">
+        <v>30</v>
+      </c>
+      <c r="N45" s="2">
+        <f t="shared" si="4"/>
+        <v>25.8</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="6"/>
+        <v>2714.82</v>
+      </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A46">
         <v>31</v>
       </c>
       <c r="B46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>92.481400000000008</v>
       </c>
       <c r="C46" s="1">
@@ -7608,13 +9897,24 @@
         <v>631.53801401384078</v>
       </c>
       <c r="L46" s="3"/>
+      <c r="M46">
+        <v>31</v>
+      </c>
+      <c r="N46" s="2">
+        <f t="shared" si="4"/>
+        <v>26.61</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="6"/>
+        <v>2890.7760499999999</v>
+      </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A47">
         <v>32</v>
       </c>
       <c r="B47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>95.456999999999994</v>
       </c>
       <c r="C47" s="1">
@@ -7643,13 +9943,24 @@
         <v>647.5652380622837</v>
       </c>
       <c r="L47" s="3"/>
+      <c r="M47">
+        <v>32</v>
+      </c>
+      <c r="N47" s="2">
+        <f t="shared" si="4"/>
+        <v>27.42</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="6"/>
+        <v>3072.2482000000005</v>
+      </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A48">
         <v>33</v>
       </c>
       <c r="B48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>98.432600000000008</v>
       </c>
       <c r="C48" s="1">
@@ -7678,13 +9989,24 @@
         <v>663.2481178200693</v>
       </c>
       <c r="L48" s="3"/>
+      <c r="M48">
+        <v>33</v>
+      </c>
+      <c r="N48" s="2">
+        <f t="shared" si="4"/>
+        <v>28.23</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="6"/>
+        <v>3259.2364499999999</v>
+      </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A49">
         <v>34</v>
       </c>
       <c r="B49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>101.40819999999999</v>
       </c>
       <c r="C49" s="1">
@@ -7713,13 +10035,24 @@
         <v>678.57619999999997</v>
       </c>
       <c r="L49" s="3"/>
+      <c r="M49">
+        <v>34</v>
+      </c>
+      <c r="N49" s="2">
+        <f t="shared" si="4"/>
+        <v>29.040000000000003</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="6"/>
+        <v>3451.7408</v>
+      </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A50">
         <v>35</v>
       </c>
       <c r="B50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>104.38380000000001</v>
       </c>
       <c r="C50" s="1">
@@ -7748,13 +10081,24 @@
         <v>693.53903546712797</v>
       </c>
       <c r="L50" s="3"/>
+      <c r="M50">
+        <v>35</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" si="4"/>
+        <v>29.85</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="6"/>
+        <v>3649.76125</v>
+      </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A51">
         <v>36</v>
       </c>
       <c r="B51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>107.35939999999999</v>
       </c>
       <c r="C51" s="1">
@@ -7783,13 +10127,24 @@
         <v>708.12617923875428</v>
       </c>
       <c r="L51" s="3"/>
+      <c r="M51">
+        <v>36</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" si="4"/>
+        <v>30.66</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="6"/>
+        <v>3853.2977999999998</v>
+      </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A52">
         <v>37</v>
       </c>
       <c r="B52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>110.33500000000001</v>
       </c>
       <c r="C52" s="1">
@@ -7818,13 +10173,24 @@
         <v>722.32719048442914</v>
       </c>
       <c r="L52" s="3"/>
+      <c r="M52">
+        <v>37</v>
+      </c>
+      <c r="N52" s="2">
+        <f t="shared" si="4"/>
+        <v>31.470000000000002</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" si="6"/>
+        <v>4062.3504500000004</v>
+      </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A53">
         <v>38</v>
       </c>
       <c r="B53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>113.31059999999999</v>
       </c>
       <c r="C53" s="1">
@@ -7853,13 +10219,24 @@
         <v>736.13163252595155</v>
       </c>
       <c r="L53" s="3"/>
+      <c r="M53">
+        <v>38</v>
+      </c>
+      <c r="N53" s="2">
+        <f t="shared" si="4"/>
+        <v>32.28</v>
+      </c>
+      <c r="O53" s="1">
+        <f t="shared" si="6"/>
+        <v>4276.9191999999994</v>
+      </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A54">
         <v>39</v>
       </c>
       <c r="B54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>116.28620000000001</v>
       </c>
       <c r="C54" s="1">
@@ -7888,13 +10265,24 @@
         <v>749.52907283737022</v>
       </c>
       <c r="L54" s="3"/>
+      <c r="M54">
+        <v>39</v>
+      </c>
+      <c r="N54" s="2">
+        <f t="shared" si="4"/>
+        <v>33.090000000000003</v>
+      </c>
+      <c r="O54" s="1">
+        <f t="shared" si="6"/>
+        <v>4497.0040500000014</v>
+      </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A55">
         <v>40</v>
       </c>
       <c r="B55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>119.26179999999999</v>
       </c>
       <c r="C55" s="1">
@@ -7923,13 +10311,24 @@
         <v>762.50908304498273</v>
       </c>
       <c r="L55" s="3"/>
+      <c r="M55">
+        <v>40</v>
+      </c>
+      <c r="N55" s="2">
+        <f t="shared" si="4"/>
+        <v>33.9</v>
+      </c>
+      <c r="O55" s="1">
+        <f t="shared" si="6"/>
+        <v>4722.6049999999996</v>
+      </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A56">
         <v>41</v>
       </c>
       <c r="B56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>122.23740000000001</v>
       </c>
       <c r="C56" s="1">
@@ -7958,13 +10357,24 @@
         <v>775.06123892733569</v>
       </c>
       <c r="L56" s="3"/>
+      <c r="M56">
+        <v>41</v>
+      </c>
+      <c r="N56" s="2">
+        <f t="shared" si="4"/>
+        <v>34.71</v>
+      </c>
+      <c r="O56" s="1">
+        <f t="shared" si="6"/>
+        <v>4953.7220499999994</v>
+      </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A57">
         <v>42</v>
       </c>
       <c r="B57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>125.21299999999999</v>
       </c>
       <c r="C57" s="1">
@@ -7993,13 +10403,24 @@
         <v>787.17512041522491</v>
       </c>
       <c r="L57" s="3"/>
+      <c r="M57">
+        <v>42</v>
+      </c>
+      <c r="N57" s="2">
+        <f t="shared" si="4"/>
+        <v>35.520000000000003</v>
+      </c>
+      <c r="O57" s="1">
+        <f t="shared" si="6"/>
+        <v>5190.3552</v>
+      </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A58">
         <v>43</v>
       </c>
       <c r="B58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>128.18860000000001</v>
       </c>
       <c r="C58" s="1">
@@ -8028,13 +10449,24 @@
         <v>798.84031159169558</v>
       </c>
       <c r="L58" s="3"/>
+      <c r="M58">
+        <v>43</v>
+      </c>
+      <c r="N58" s="2">
+        <f t="shared" si="4"/>
+        <v>36.33</v>
+      </c>
+      <c r="O58" s="1">
+        <f t="shared" si="6"/>
+        <v>5432.5044499999995</v>
+      </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A59">
         <v>44</v>
       </c>
       <c r="B59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>131.16419999999999</v>
       </c>
       <c r="C59" s="1">
@@ -8063,13 +10495,24 @@
         <v>810.04640069204163</v>
       </c>
       <c r="L59" s="3"/>
+      <c r="M59">
+        <v>44</v>
+      </c>
+      <c r="N59" s="2">
+        <f t="shared" si="4"/>
+        <v>37.14</v>
+      </c>
+      <c r="O59" s="1">
+        <f t="shared" si="6"/>
+        <v>5680.1697999999997</v>
+      </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A60">
         <v>45</v>
       </c>
       <c r="B60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>134.13980000000001</v>
       </c>
       <c r="C60" s="1">
@@ -8098,13 +10541,24 @@
         <v>820.78298010380615</v>
       </c>
       <c r="L60" s="3"/>
+      <c r="M60">
+        <v>45</v>
+      </c>
+      <c r="N60" s="2">
+        <f t="shared" si="4"/>
+        <v>37.950000000000003</v>
+      </c>
+      <c r="O60" s="1">
+        <f t="shared" si="6"/>
+        <v>5933.3512500000006</v>
+      </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A61">
         <v>46</v>
       </c>
       <c r="B61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>137.11539999999999</v>
       </c>
       <c r="C61" s="1">
@@ -8133,13 +10587,24 @@
         <v>831.03964636678199</v>
       </c>
       <c r="L61" s="3"/>
+      <c r="M61">
+        <v>46</v>
+      </c>
+      <c r="N61" s="2">
+        <f t="shared" si="4"/>
+        <v>38.760000000000005</v>
+      </c>
+      <c r="O61" s="1">
+        <f t="shared" si="6"/>
+        <v>6192.0488000000005</v>
+      </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A62">
         <v>47</v>
       </c>
       <c r="B62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>140.09100000000001</v>
       </c>
       <c r="C62" s="1">
@@ -8168,13 +10633,24 @@
         <v>840.80600017301037</v>
       </c>
       <c r="L62" s="3"/>
+      <c r="M62">
+        <v>47</v>
+      </c>
+      <c r="N62" s="2">
+        <f t="shared" si="4"/>
+        <v>39.57</v>
+      </c>
+      <c r="O62" s="1">
+        <f t="shared" si="6"/>
+        <v>6456.2624500000002</v>
+      </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A63">
         <v>48</v>
       </c>
       <c r="B63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>143.06659999999999</v>
       </c>
       <c r="C63" s="1">
@@ -8203,13 +10679,24 @@
         <v>850.07164636678192</v>
       </c>
       <c r="L63" s="3"/>
+      <c r="M63">
+        <v>48</v>
+      </c>
+      <c r="N63" s="2">
+        <f t="shared" si="4"/>
+        <v>40.380000000000003</v>
+      </c>
+      <c r="O63" s="1">
+        <f t="shared" si="6"/>
+        <v>6725.9922000000006</v>
+      </c>
     </row>
-    <row r="64" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A64">
         <v>49</v>
       </c>
       <c r="B64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>146.04220000000001</v>
       </c>
       <c r="C64" s="1">
@@ -8238,13 +10725,24 @@
         <v>858.82619394463666</v>
       </c>
       <c r="L64" s="3"/>
+      <c r="M64">
+        <v>49</v>
+      </c>
+      <c r="N64" s="2">
+        <f t="shared" si="4"/>
+        <v>41.190000000000005</v>
+      </c>
+      <c r="O64" s="1">
+        <f t="shared" si="6"/>
+        <v>7001.2380500000008</v>
+      </c>
     </row>
-    <row r="65" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A65">
         <v>50</v>
       </c>
       <c r="B65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>149.01779999999999</v>
       </c>
       <c r="C65" s="1">
@@ -8273,13 +10771,24 @@
         <v>867.05925605536322</v>
       </c>
       <c r="L65" s="3"/>
+      <c r="M65">
+        <v>50</v>
+      </c>
+      <c r="N65" s="2">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="O65" s="1">
+        <f t="shared" si="6"/>
+        <v>7282</v>
+      </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A66">
         <v>51</v>
       </c>
       <c r="B66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>151.99340000000001</v>
       </c>
       <c r="C66" s="1">
@@ -8308,13 +10817,24 @@
         <v>874.76044999999999</v>
       </c>
       <c r="L66" s="3"/>
+      <c r="M66">
+        <v>51</v>
+      </c>
+      <c r="N66" s="2">
+        <f t="shared" si="4"/>
+        <v>42.81</v>
+      </c>
+      <c r="O66" s="1">
+        <f t="shared" si="6"/>
+        <v>7568.2780500000008</v>
+      </c>
     </row>
-    <row r="67" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A67">
         <v>52</v>
       </c>
       <c r="B67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>154.96899999999999</v>
       </c>
       <c r="C67" s="1">
@@ -8343,13 +10863,24 @@
         <v>881.91939723183395</v>
       </c>
       <c r="L67" s="3"/>
+      <c r="M67">
+        <v>52</v>
+      </c>
+      <c r="N67" s="2">
+        <f t="shared" si="4"/>
+        <v>43.620000000000005</v>
+      </c>
+      <c r="O67" s="1">
+        <f t="shared" si="6"/>
+        <v>7860.0722000000005</v>
+      </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A68">
         <v>53</v>
       </c>
       <c r="B68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>157.94460000000001</v>
       </c>
       <c r="C68" s="1">
@@ -8378,13 +10909,24 @@
         <v>888.5257233564015</v>
       </c>
       <c r="L68" s="3"/>
+      <c r="M68">
+        <v>53</v>
+      </c>
+      <c r="N68" s="2">
+        <f t="shared" si="4"/>
+        <v>44.430000000000007</v>
+      </c>
+      <c r="O68" s="1">
+        <f t="shared" si="6"/>
+        <v>8157.382450000001</v>
+      </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A69">
         <v>54</v>
       </c>
       <c r="B69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>160.92019999999999</v>
       </c>
       <c r="C69" s="1">
@@ -8413,13 +10955,24 @@
         <v>894.56905813148796</v>
       </c>
       <c r="L69" s="3"/>
+      <c r="M69">
+        <v>54</v>
+      </c>
+      <c r="N69" s="2">
+        <f t="shared" si="4"/>
+        <v>45.24</v>
+      </c>
+      <c r="O69" s="1">
+        <f t="shared" si="6"/>
+        <v>8460.2088000000003</v>
+      </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A70">
         <v>55</v>
       </c>
       <c r="B70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>163.89580000000001</v>
       </c>
       <c r="C70" s="1">
@@ -8448,13 +11001,24 @@
         <v>900.03903546712809</v>
       </c>
       <c r="L70" s="3"/>
+      <c r="M70">
+        <v>55</v>
+      </c>
+      <c r="N70" s="2">
+        <f t="shared" si="4"/>
+        <v>46.05</v>
+      </c>
+      <c r="O70" s="1">
+        <f t="shared" si="6"/>
+        <v>8768.5512500000004</v>
+      </c>
     </row>
-    <row r="71" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A71">
         <v>56</v>
       </c>
       <c r="B71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>166.87139999999999</v>
       </c>
       <c r="C71" s="1">
@@ -8483,13 +11047,24 @@
         <v>904.92529342560545</v>
       </c>
       <c r="L71" s="3"/>
+      <c r="M71">
+        <v>56</v>
+      </c>
+      <c r="N71" s="2">
+        <f t="shared" si="4"/>
+        <v>46.860000000000007</v>
+      </c>
+      <c r="O71" s="1">
+        <f t="shared" si="6"/>
+        <v>9082.4098000000013</v>
+      </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A72">
         <v>57</v>
       </c>
       <c r="B72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>169.84700000000001</v>
       </c>
       <c r="C72" s="1">
@@ -8518,13 +11093,24 @@
         <v>909.21747422145324</v>
       </c>
       <c r="L72" s="3"/>
+      <c r="M72">
+        <v>57</v>
+      </c>
+      <c r="N72" s="2">
+        <f t="shared" si="4"/>
+        <v>47.67</v>
+      </c>
+      <c r="O72" s="1">
+        <f t="shared" si="6"/>
+        <v>9401.784450000001</v>
+      </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A73">
         <v>58</v>
       </c>
       <c r="B73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>172.82259999999999</v>
       </c>
       <c r="C73" s="1">
@@ -8553,13 +11139,24 @@
         <v>912.9052242214533</v>
       </c>
       <c r="L73" s="3"/>
+      <c r="M73">
+        <v>58</v>
+      </c>
+      <c r="N73" s="2">
+        <f t="shared" si="4"/>
+        <v>48.480000000000004</v>
+      </c>
+      <c r="O73" s="1">
+        <f t="shared" si="6"/>
+        <v>9726.6752000000015</v>
+      </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A74">
         <v>59</v>
       </c>
       <c r="B74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>175.79820000000001</v>
       </c>
       <c r="C74" s="1">
@@ -8588,13 +11185,24 @@
         <v>915.97819394463681</v>
       </c>
       <c r="L74" s="3"/>
+      <c r="M74">
+        <v>59</v>
+      </c>
+      <c r="N74" s="2">
+        <f t="shared" si="4"/>
+        <v>49.290000000000006</v>
+      </c>
+      <c r="O74" s="1">
+        <f t="shared" si="6"/>
+        <v>10057.082050000001</v>
+      </c>
     </row>
-    <row r="75" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A75">
         <v>60</v>
       </c>
       <c r="B75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>178.77379999999999</v>
       </c>
       <c r="C75" s="1">
@@ -8623,13 +11231,24 @@
         <v>918.42603806228385</v>
       </c>
       <c r="L75" s="3"/>
+      <c r="M75">
+        <v>60</v>
+      </c>
+      <c r="N75" s="2">
+        <f t="shared" si="4"/>
+        <v>50.1</v>
+      </c>
+      <c r="O75" s="1">
+        <f t="shared" si="6"/>
+        <v>10393.005000000001</v>
+      </c>
     </row>
-    <row r="76" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A76">
         <v>61</v>
       </c>
       <c r="B76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>181.74940000000001</v>
       </c>
       <c r="C76" s="1">
@@ -8658,13 +11277,24 @@
         <v>920.23841539792375</v>
       </c>
       <c r="L76" s="3"/>
+      <c r="M76">
+        <v>61</v>
+      </c>
+      <c r="N76" s="2">
+        <f t="shared" si="4"/>
+        <v>50.910000000000004</v>
+      </c>
+      <c r="O76" s="1">
+        <f t="shared" si="6"/>
+        <v>10734.444050000002</v>
+      </c>
     </row>
-    <row r="77" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A77">
         <v>62</v>
       </c>
       <c r="B77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>184.72499999999999</v>
       </c>
       <c r="C77" s="1">
@@ -8693,13 +11323,24 @@
         <v>921.40498892733558</v>
       </c>
       <c r="L77" s="3"/>
+      <c r="M77">
+        <v>62</v>
+      </c>
+      <c r="N77" s="2">
+        <f t="shared" si="4"/>
+        <v>51.72</v>
+      </c>
+      <c r="O77" s="1">
+        <f t="shared" si="6"/>
+        <v>11081.3992</v>
+      </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A78">
         <v>63</v>
       </c>
       <c r="B78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>187.70060000000001</v>
       </c>
       <c r="C78" s="1">
@@ -8728,13 +11369,24 @@
         <v>921.91542577854671</v>
       </c>
       <c r="L78" s="3"/>
+      <c r="M78">
+        <v>63</v>
+      </c>
+      <c r="N78" s="2">
+        <f t="shared" si="4"/>
+        <v>52.530000000000008</v>
+      </c>
+      <c r="O78" s="1">
+        <f t="shared" si="6"/>
+        <v>11433.870450000002</v>
+      </c>
     </row>
-    <row r="79" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A79">
         <v>64</v>
       </c>
       <c r="B79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>190.67619999999999</v>
       </c>
       <c r="C79" s="1">
@@ -8763,17 +11415,28 @@
         <v>921.75939723183376</v>
       </c>
       <c r="L79" s="3"/>
+      <c r="M79">
+        <v>64</v>
+      </c>
+      <c r="N79" s="2">
+        <f t="shared" si="4"/>
+        <v>53.34</v>
+      </c>
+      <c r="O79" s="1">
+        <f t="shared" si="6"/>
+        <v>11791.857800000002</v>
+      </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A80">
         <v>65</v>
       </c>
       <c r="B80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>193.65180000000001</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" ref="C80:C115" si="5">(A80*3.14)+A80 * (A80/15)</f>
+        <f t="shared" ref="C80:C115" si="7">(A80*3.14)+A80 * (A80/15)</f>
         <v>485.76666666666665</v>
       </c>
       <c r="E80">
@@ -8783,32 +11446,43 @@
         <v>5</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" ref="G80:G115" si="6">E80*2.2+1</f>
+        <f t="shared" ref="G80:G115" si="8">E80*2.2+1</f>
         <v>144</v>
       </c>
       <c r="I80">
         <v>65</v>
       </c>
       <c r="J80" s="2">
-        <f t="shared" ref="J80:J115" si="7">6.5-(I80/17)*(I80/100)</f>
+        <f t="shared" ref="J80:J115" si="9">6.5-(I80/17)*(I80/100)</f>
         <v>4.0147058823529411</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" ref="K80:K115" si="8" xml:space="preserve"> ((J80*0.5)+(I80*3)) *J80+(I80*2)</f>
+        <f t="shared" ref="K80:K115" si="10" xml:space="preserve"> ((J80*0.5)+(I80*3)) *J80+(I80*2)</f>
         <v>920.92657871972312</v>
       </c>
       <c r="L80" s="3"/>
+      <c r="M80">
+        <v>65</v>
+      </c>
+      <c r="N80" s="2">
+        <f t="shared" ref="N80:N115" si="11">1.5+(M80*0.8)+(M80/100)</f>
+        <v>54.15</v>
+      </c>
+      <c r="O80" s="1">
+        <f t="shared" ref="O80:O115" si="12" xml:space="preserve"> ((N80*0.5)+(M80*3)) *N80+(M80*2)</f>
+        <v>12155.36125</v>
+      </c>
     </row>
-    <row r="81" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A81">
         <v>66</v>
       </c>
       <c r="B81">
-        <f t="shared" ref="B81:B115" si="9">(A81*2+1)*0.2378+(A81*2.5)</f>
+        <f t="shared" ref="B81:B115" si="13">(A81*2+1)*0.2378+(A81*2.5)</f>
         <v>196.62739999999999</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>497.64000000000004</v>
       </c>
       <c r="E81">
@@ -8818,32 +11492,43 @@
         <v>5</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>146.20000000000002</v>
       </c>
       <c r="I81">
         <v>66</v>
       </c>
       <c r="J81" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.9376470588235293</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>919.40664982698956</v>
       </c>
       <c r="L81" s="3"/>
+      <c r="M81">
+        <v>66</v>
+      </c>
+      <c r="N81" s="2">
+        <f t="shared" si="11"/>
+        <v>54.96</v>
+      </c>
+      <c r="O81" s="1">
+        <f t="shared" si="12"/>
+        <v>12524.380799999999</v>
+      </c>
     </row>
-    <row r="82" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A82">
         <v>67</v>
       </c>
       <c r="B82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>199.60300000000001</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>509.64666666666665</v>
       </c>
       <c r="E82">
@@ -8853,32 +11538,43 @@
         <v>5</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>148.4</v>
       </c>
       <c r="I82">
         <v>67</v>
       </c>
       <c r="J82" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.8594117647058819</v>
       </c>
       <c r="K82" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>917.18929429065736</v>
       </c>
       <c r="L82" s="3"/>
+      <c r="M82">
+        <v>67</v>
+      </c>
+      <c r="N82" s="2">
+        <f t="shared" si="11"/>
+        <v>55.77</v>
+      </c>
+      <c r="O82" s="1">
+        <f t="shared" si="12"/>
+        <v>12898.916450000001</v>
+      </c>
     </row>
-    <row r="83" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A83">
         <v>68</v>
       </c>
       <c r="B83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>202.57859999999999</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>521.78666666666663</v>
       </c>
       <c r="E83">
@@ -8888,32 +11584,43 @@
         <v>5</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>150.60000000000002</v>
       </c>
       <c r="I83">
         <v>68</v>
       </c>
       <c r="J83" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.78</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>914.26419999999996</v>
       </c>
       <c r="L83" s="3"/>
+      <c r="M83">
+        <v>68</v>
+      </c>
+      <c r="N83" s="2">
+        <f t="shared" si="11"/>
+        <v>56.580000000000005</v>
+      </c>
+      <c r="O83" s="1">
+        <f t="shared" si="12"/>
+        <v>13278.968200000001</v>
+      </c>
     </row>
-    <row r="84" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A84">
         <v>69</v>
       </c>
       <c r="B84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>205.55420000000001</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>534.05999999999995</v>
       </c>
       <c r="E84">
@@ -8923,32 +11630,43 @@
         <v>5</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>152.80000000000001</v>
       </c>
       <c r="I84">
         <v>69</v>
       </c>
       <c r="J84" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.6994117647058826</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>910.62105899653977</v>
       </c>
       <c r="L84" s="3"/>
+      <c r="M84">
+        <v>69</v>
+      </c>
+      <c r="N84" s="2">
+        <f t="shared" si="11"/>
+        <v>57.39</v>
+      </c>
+      <c r="O84" s="1">
+        <f t="shared" si="12"/>
+        <v>13664.536050000001</v>
+      </c>
     </row>
-    <row r="85" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A85">
         <v>70</v>
       </c>
       <c r="B85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>208.52979999999999</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>546.4666666666667</v>
       </c>
       <c r="E85">
@@ -8958,32 +11676,43 @@
         <v>5</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>155</v>
       </c>
       <c r="I85">
         <v>70</v>
       </c>
       <c r="J85" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.6176470588235299</v>
       </c>
       <c r="K85" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>906.2495674740486</v>
       </c>
       <c r="L85" s="3"/>
+      <c r="M85">
+        <v>70</v>
+      </c>
+      <c r="N85" s="2">
+        <f t="shared" si="11"/>
+        <v>58.2</v>
+      </c>
+      <c r="O85" s="1">
+        <f t="shared" si="12"/>
+        <v>14055.62</v>
+      </c>
     </row>
-    <row r="86" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A86">
         <v>71</v>
       </c>
       <c r="B86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>211.50540000000001</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>559.00666666666666</v>
       </c>
       <c r="E86">
@@ -8993,32 +11722,43 @@
         <v>5</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>157.20000000000002</v>
       </c>
       <c r="I86">
         <v>71</v>
       </c>
       <c r="J86" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.5347058823529411</v>
       </c>
       <c r="K86" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>901.13942577854675</v>
       </c>
       <c r="L86" s="3"/>
+      <c r="M86">
+        <v>71</v>
+      </c>
+      <c r="N86" s="2">
+        <f t="shared" si="11"/>
+        <v>59.010000000000005</v>
+      </c>
+      <c r="O86" s="1">
+        <f t="shared" si="12"/>
+        <v>14452.220050000002</v>
+      </c>
     </row>
-    <row r="87" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A87">
         <v>72</v>
       </c>
       <c r="B87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>214.48099999999999</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>571.67999999999995</v>
       </c>
       <c r="E87">
@@ -9028,32 +11768,43 @@
         <v>5</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>159.4</v>
       </c>
       <c r="I87">
         <v>72</v>
       </c>
       <c r="J87" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.4505882352941177</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>895.28033840830449</v>
       </c>
       <c r="L87" s="3"/>
+      <c r="M87">
+        <v>72</v>
+      </c>
+      <c r="N87" s="2">
+        <f t="shared" si="11"/>
+        <v>59.82</v>
+      </c>
+      <c r="O87" s="1">
+        <f t="shared" si="12"/>
+        <v>14854.3362</v>
+      </c>
     </row>
-    <row r="88" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A88">
         <v>73</v>
       </c>
       <c r="B88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>217.45660000000001</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>584.48666666666668</v>
       </c>
       <c r="E88">
@@ -9063,32 +11814,43 @@
         <v>5</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>161.60000000000002</v>
       </c>
       <c r="I88">
         <v>73</v>
       </c>
       <c r="J88" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.3652941176470592</v>
       </c>
       <c r="K88" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>888.66201401384092</v>
       </c>
       <c r="L88" s="3"/>
+      <c r="M88">
+        <v>73</v>
+      </c>
+      <c r="N88" s="2">
+        <f t="shared" si="11"/>
+        <v>60.63</v>
+      </c>
+      <c r="O88" s="1">
+        <f t="shared" si="12"/>
+        <v>15261.96845</v>
+      </c>
     </row>
-    <row r="89" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A89">
         <v>74</v>
       </c>
       <c r="B89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>220.43219999999999</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>597.42666666666673</v>
       </c>
       <c r="E89">
@@ -9098,32 +11860,43 @@
         <v>5</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>163.80000000000001</v>
       </c>
       <c r="I89">
         <v>74</v>
       </c>
       <c r="J89" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.2788235294117651</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>881.27416539792398</v>
       </c>
       <c r="L89" s="3"/>
+      <c r="M89">
+        <v>74</v>
+      </c>
+      <c r="N89" s="2">
+        <f t="shared" si="11"/>
+        <v>61.440000000000005</v>
+      </c>
+      <c r="O89" s="1">
+        <f t="shared" si="12"/>
+        <v>15675.116800000002</v>
+      </c>
     </row>
-    <row r="90" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A90">
         <v>75</v>
       </c>
       <c r="B90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>223.40780000000001</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>610.5</v>
       </c>
       <c r="E90">
@@ -9133,32 +11906,43 @@
         <v>5</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>166</v>
       </c>
       <c r="I90">
         <v>75</v>
       </c>
       <c r="J90" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.1911764705882351</v>
       </c>
       <c r="K90" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>873.10650951557091</v>
       </c>
       <c r="L90" s="3"/>
+      <c r="M90">
+        <v>75</v>
+      </c>
+      <c r="N90" s="2">
+        <f t="shared" si="11"/>
+        <v>62.25</v>
+      </c>
+      <c r="O90" s="1">
+        <f t="shared" si="12"/>
+        <v>16093.78125</v>
+      </c>
     </row>
-    <row r="91" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A91">
         <v>76</v>
       </c>
       <c r="B91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>226.38339999999999</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>623.70666666666671</v>
       </c>
       <c r="E91">
@@ -9168,32 +11952,43 @@
         <v>5</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>168.20000000000002</v>
       </c>
       <c r="I91">
         <v>76</v>
       </c>
       <c r="J91" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.1023529411764703</v>
       </c>
       <c r="K91" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>864.14876747404844</v>
       </c>
       <c r="L91" s="3"/>
+      <c r="M91">
+        <v>76</v>
+      </c>
+      <c r="N91" s="2">
+        <f t="shared" si="11"/>
+        <v>63.06</v>
+      </c>
+      <c r="O91" s="1">
+        <f t="shared" si="12"/>
+        <v>16517.961799999997</v>
+      </c>
     </row>
-    <row r="92" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A92">
         <v>77</v>
       </c>
       <c r="B92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>229.35900000000001</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>637.04666666666674</v>
       </c>
       <c r="E92">
@@ -9203,32 +11998,43 @@
         <v>5</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>170.4</v>
       </c>
       <c r="I92">
         <v>77</v>
       </c>
       <c r="J92" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.0123529411764705</v>
       </c>
       <c r="K92" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>854.39066453287194</v>
       </c>
       <c r="L92" s="3"/>
+      <c r="M92">
+        <v>77</v>
+      </c>
+      <c r="N92" s="2">
+        <f t="shared" si="11"/>
+        <v>63.870000000000005</v>
+      </c>
+      <c r="O92" s="1">
+        <f t="shared" si="12"/>
+        <v>16947.658450000003</v>
+      </c>
     </row>
-    <row r="93" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A93">
         <v>78</v>
       </c>
       <c r="B93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>232.33459999999999</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>650.52</v>
       </c>
       <c r="E93">
@@ -9238,32 +12044,43 @@
         <v>5</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>172.60000000000002</v>
       </c>
       <c r="I93">
         <v>78</v>
       </c>
       <c r="J93" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.9211764705882355</v>
       </c>
       <c r="K93" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>843.82193010380627</v>
       </c>
       <c r="L93" s="3"/>
+      <c r="M93">
+        <v>78</v>
+      </c>
+      <c r="N93" s="2">
+        <f t="shared" si="11"/>
+        <v>64.680000000000007</v>
+      </c>
+      <c r="O93" s="1">
+        <f t="shared" si="12"/>
+        <v>17382.871200000005</v>
+      </c>
     </row>
-    <row r="94" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A94">
         <v>79</v>
       </c>
       <c r="B94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>235.31020000000001</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>664.12666666666667</v>
       </c>
       <c r="E94">
@@ -9273,32 +12090,43 @@
         <v>5</v>
       </c>
       <c r="G94" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>174.8</v>
       </c>
       <c r="I94">
         <v>79</v>
       </c>
       <c r="J94" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.8288235294117641</v>
       </c>
       <c r="K94" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>832.4322977508649</v>
       </c>
       <c r="L94" s="3"/>
+      <c r="M94">
+        <v>79</v>
+      </c>
+      <c r="N94" s="2">
+        <f t="shared" si="11"/>
+        <v>65.490000000000009</v>
+      </c>
+      <c r="O94" s="1">
+        <f t="shared" si="12"/>
+        <v>17823.600050000005</v>
+      </c>
     </row>
-    <row r="95" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A95">
         <v>80</v>
       </c>
       <c r="B95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>238.28579999999999</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>677.86666666666667</v>
       </c>
       <c r="E95">
@@ -9308,32 +12136,43 @@
         <v>5</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>177</v>
       </c>
       <c r="I95">
         <v>80</v>
       </c>
       <c r="J95" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.7352941176470584</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>820.2115051903113</v>
       </c>
       <c r="L95" s="3"/>
+      <c r="M95">
+        <v>80</v>
+      </c>
+      <c r="N95" s="2">
+        <f t="shared" si="11"/>
+        <v>66.3</v>
+      </c>
+      <c r="O95" s="1">
+        <f t="shared" si="12"/>
+        <v>18269.844999999998</v>
+      </c>
     </row>
-    <row r="96" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A96">
         <v>81</v>
       </c>
       <c r="B96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>241.26140000000001</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>691.74</v>
       </c>
       <c r="E96">
@@ -9343,32 +12182,43 @@
         <v>5</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>179.20000000000002</v>
       </c>
       <c r="I96">
         <v>81</v>
       </c>
       <c r="J96" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.6405882352941172</v>
       </c>
       <c r="K96" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>807.14929429065728</v>
       </c>
       <c r="L96" s="3"/>
+      <c r="M96">
+        <v>81</v>
+      </c>
+      <c r="N96" s="2">
+        <f t="shared" si="11"/>
+        <v>67.11</v>
+      </c>
+      <c r="O96" s="1">
+        <f t="shared" si="12"/>
+        <v>18721.606049999999</v>
+      </c>
     </row>
-    <row r="97" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A97">
         <v>82</v>
       </c>
       <c r="B97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>244.23699999999999</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>705.74666666666667</v>
       </c>
       <c r="E97">
@@ -9378,32 +12228,43 @@
         <v>5</v>
       </c>
       <c r="G97" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>181.4</v>
       </c>
       <c r="I97">
         <v>82</v>
       </c>
       <c r="J97" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.5447058823529418</v>
       </c>
       <c r="K97" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>793.23541107266453</v>
       </c>
       <c r="L97" s="3"/>
+      <c r="M97">
+        <v>82</v>
+      </c>
+      <c r="N97" s="2">
+        <f t="shared" si="11"/>
+        <v>67.92</v>
+      </c>
+      <c r="O97" s="1">
+        <f t="shared" si="12"/>
+        <v>19178.8832</v>
+      </c>
     </row>
-    <row r="98" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A98">
         <v>83</v>
       </c>
       <c r="B98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>247.21260000000001</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>719.88666666666666</v>
       </c>
       <c r="E98">
@@ -9413,32 +12274,43 @@
         <v>5</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>183.60000000000002</v>
       </c>
       <c r="I98">
         <v>83</v>
       </c>
       <c r="J98" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.4476470588235291</v>
       </c>
       <c r="K98" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>778.45960570934244</v>
       </c>
       <c r="L98" s="3"/>
+      <c r="M98">
+        <v>83</v>
+      </c>
+      <c r="N98" s="2">
+        <f t="shared" si="11"/>
+        <v>68.73</v>
+      </c>
+      <c r="O98" s="1">
+        <f t="shared" si="12"/>
+        <v>19641.676450000003</v>
+      </c>
     </row>
-    <row r="99" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A99">
         <v>84</v>
       </c>
       <c r="B99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>250.18819999999999</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>734.16</v>
       </c>
       <c r="E99">
@@ -9448,32 +12320,43 @@
         <v>5</v>
       </c>
       <c r="G99" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>185.8</v>
       </c>
       <c r="I99">
         <v>84</v>
       </c>
       <c r="J99" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.3494117647058825</v>
       </c>
       <c r="K99" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>762.81163252595161</v>
       </c>
       <c r="L99" s="3"/>
+      <c r="M99">
+        <v>84</v>
+      </c>
+      <c r="N99" s="2">
+        <f t="shared" si="11"/>
+        <v>69.540000000000006</v>
+      </c>
+      <c r="O99" s="1">
+        <f t="shared" si="12"/>
+        <v>20109.985800000002</v>
+      </c>
     </row>
-    <row r="100" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A100">
         <v>85</v>
       </c>
       <c r="B100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>253.16380000000001</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>748.56666666666672</v>
       </c>
       <c r="E100">
@@ -9483,32 +12366,43 @@
         <v>5</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>188.00000000000003</v>
       </c>
       <c r="I100">
         <v>85</v>
       </c>
       <c r="J100" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.25</v>
       </c>
       <c r="K100" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>746.28125</v>
       </c>
       <c r="L100" s="3"/>
+      <c r="M100">
+        <v>85</v>
+      </c>
+      <c r="N100" s="2">
+        <f t="shared" si="11"/>
+        <v>70.349999999999994</v>
+      </c>
+      <c r="O100" s="1">
+        <f t="shared" si="12"/>
+        <v>20583.811249999999</v>
+      </c>
     </row>
-    <row r="101" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A101">
         <v>86</v>
       </c>
       <c r="B101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>256.13940000000002</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>763.10666666666668</v>
       </c>
       <c r="E101">
@@ -9518,32 +12412,43 @@
         <v>5</v>
       </c>
       <c r="G101" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>190.20000000000002</v>
       </c>
       <c r="I101">
         <v>86</v>
       </c>
       <c r="J101" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.1494117647058824</v>
       </c>
       <c r="K101" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>728.85822076124566</v>
       </c>
       <c r="L101" s="3"/>
+      <c r="M101">
+        <v>86</v>
+      </c>
+      <c r="N101" s="2">
+        <f t="shared" si="11"/>
+        <v>71.16</v>
+      </c>
+      <c r="O101" s="1">
+        <f t="shared" si="12"/>
+        <v>21063.152799999996</v>
+      </c>
     </row>
-    <row r="102" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A102">
         <v>87</v>
       </c>
       <c r="B102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>259.11500000000001</v>
       </c>
       <c r="C102" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>777.78</v>
       </c>
       <c r="E102">
@@ -9553,32 +12458,43 @@
         <v>5</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>192.4</v>
       </c>
       <c r="I102">
         <v>87</v>
       </c>
       <c r="J102" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0476470588235296</v>
       </c>
       <c r="K102" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>710.53231159169547</v>
       </c>
       <c r="L102" s="3"/>
+      <c r="M102">
+        <v>87</v>
+      </c>
+      <c r="N102" s="2">
+        <f t="shared" si="11"/>
+        <v>71.970000000000013</v>
+      </c>
+      <c r="O102" s="1">
+        <f t="shared" si="12"/>
+        <v>21548.010450000005</v>
+      </c>
     </row>
-    <row r="103" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A103">
         <v>88</v>
       </c>
       <c r="B103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>262.09059999999999</v>
       </c>
       <c r="C103" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>792.58666666666659</v>
       </c>
       <c r="E103">
@@ -9588,32 +12504,43 @@
         <v>5</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>194.60000000000002</v>
       </c>
       <c r="I103">
         <v>88</v>
       </c>
       <c r="J103" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9447058823529408</v>
       </c>
       <c r="K103" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>691.2932934256055</v>
       </c>
       <c r="L103" s="3"/>
+      <c r="M103">
+        <v>88</v>
+      </c>
+      <c r="N103" s="2">
+        <f t="shared" si="11"/>
+        <v>72.78</v>
+      </c>
+      <c r="O103" s="1">
+        <f t="shared" si="12"/>
+        <v>22038.3842</v>
+      </c>
     </row>
-    <row r="104" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A104">
         <v>89</v>
       </c>
       <c r="B104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>265.06619999999998</v>
       </c>
       <c r="C104" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>807.52666666666676</v>
       </c>
       <c r="E104">
@@ -9623,32 +12550,43 @@
         <v>5</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>196.8</v>
       </c>
       <c r="I104">
         <v>89</v>
       </c>
       <c r="J104" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.8405882352941179</v>
       </c>
       <c r="K104" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>671.13094134948108</v>
       </c>
       <c r="L104" s="3"/>
+      <c r="M104">
+        <v>89</v>
+      </c>
+      <c r="N104" s="2">
+        <f t="shared" si="11"/>
+        <v>73.59</v>
+      </c>
+      <c r="O104" s="1">
+        <f t="shared" si="12"/>
+        <v>22534.274050000004</v>
+      </c>
     </row>
-    <row r="105" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A105">
         <v>90</v>
       </c>
       <c r="B105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>268.04180000000002</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>822.6</v>
       </c>
       <c r="E105">
@@ -9658,32 +12596,43 @@
         <v>5</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>199.00000000000003</v>
       </c>
       <c r="I105">
         <v>90</v>
       </c>
       <c r="J105" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7352941176470589</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>650.03503460207617</v>
       </c>
       <c r="L105" s="3"/>
+      <c r="M105">
+        <v>90</v>
+      </c>
+      <c r="N105" s="2">
+        <f t="shared" si="11"/>
+        <v>74.400000000000006</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="12"/>
+        <v>23035.68</v>
+      </c>
     </row>
-    <row r="106" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A106">
         <v>91</v>
       </c>
       <c r="B106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>271.01740000000001</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>837.80666666666662</v>
       </c>
       <c r="E106">
@@ -9693,32 +12642,43 @@
         <v>5</v>
       </c>
       <c r="G106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>201.20000000000002</v>
       </c>
       <c r="I106">
         <v>91</v>
       </c>
       <c r="J106" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.6288235294117648</v>
       </c>
       <c r="K106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>627.99535657439446</v>
       </c>
       <c r="L106" s="3"/>
+      <c r="M106">
+        <v>91</v>
+      </c>
+      <c r="N106" s="2">
+        <f t="shared" si="11"/>
+        <v>75.209999999999994</v>
+      </c>
+      <c r="O106" s="1">
+        <f t="shared" si="12"/>
+        <v>23542.602049999998</v>
+      </c>
     </row>
-    <row r="107" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A107">
         <v>92</v>
       </c>
       <c r="B107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>273.99299999999999</v>
       </c>
       <c r="C107" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>853.14666666666665</v>
       </c>
       <c r="E107">
@@ -9728,32 +12688,43 @@
         <v>5</v>
       </c>
       <c r="G107" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>203.4</v>
       </c>
       <c r="I107">
         <v>92</v>
       </c>
       <c r="J107" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5211764705882347</v>
       </c>
       <c r="K107" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>605.00169480968839</v>
       </c>
       <c r="L107" s="3"/>
+      <c r="M107">
+        <v>92</v>
+      </c>
+      <c r="N107" s="2">
+        <f t="shared" si="11"/>
+        <v>76.02000000000001</v>
+      </c>
+      <c r="O107" s="1">
+        <f t="shared" si="12"/>
+        <v>24055.040200000003</v>
+      </c>
     </row>
-    <row r="108" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A108">
         <v>93</v>
       </c>
       <c r="B108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>276.96859999999998</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>868.62000000000012</v>
       </c>
       <c r="E108">
@@ -9763,32 +12734,43 @@
         <v>5</v>
       </c>
       <c r="G108" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>205.60000000000002</v>
       </c>
       <c r="I108">
         <v>93</v>
       </c>
       <c r="J108" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4123529411764704</v>
       </c>
       <c r="K108" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>581.0438410034601</v>
       </c>
       <c r="L108" s="3"/>
+      <c r="M108">
+        <v>93</v>
+      </c>
+      <c r="N108" s="2">
+        <f t="shared" si="11"/>
+        <v>76.830000000000013</v>
+      </c>
+      <c r="O108" s="1">
+        <f t="shared" si="12"/>
+        <v>24572.994450000006</v>
+      </c>
     </row>
-    <row r="109" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A109">
         <v>94</v>
       </c>
       <c r="B109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>279.94420000000002</v>
       </c>
       <c r="C109" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>884.22666666666669</v>
       </c>
       <c r="E109">
@@ -9798,32 +12780,43 @@
         <v>5</v>
       </c>
       <c r="G109" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>207.8</v>
       </c>
       <c r="I109">
         <v>94</v>
       </c>
       <c r="J109" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3023529411764709</v>
       </c>
       <c r="K109" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>556.11159100346026</v>
       </c>
       <c r="L109" s="3"/>
+      <c r="M109">
+        <v>94</v>
+      </c>
+      <c r="N109" s="2">
+        <f t="shared" si="11"/>
+        <v>77.64</v>
+      </c>
+      <c r="O109" s="1">
+        <f t="shared" si="12"/>
+        <v>25096.464799999998</v>
+      </c>
     </row>
-    <row r="110" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A110">
         <v>95</v>
       </c>
       <c r="B110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>282.91980000000001</v>
       </c>
       <c r="C110" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>899.9666666666667</v>
       </c>
       <c r="E110">
@@ -9833,32 +12826,43 @@
         <v>5</v>
       </c>
       <c r="G110" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>210.00000000000003</v>
       </c>
       <c r="I110">
         <v>95</v>
       </c>
       <c r="J110" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.1911764705882355</v>
       </c>
       <c r="K110" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>530.1947448096887</v>
       </c>
       <c r="L110" s="3"/>
+      <c r="M110">
+        <v>95</v>
+      </c>
+      <c r="N110" s="2">
+        <f t="shared" si="11"/>
+        <v>78.45</v>
+      </c>
+      <c r="O110" s="1">
+        <f t="shared" si="12"/>
+        <v>25625.451250000002</v>
+      </c>
     </row>
-    <row r="111" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A111">
         <v>96</v>
       </c>
       <c r="B111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>285.8954</v>
       </c>
       <c r="C111" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>915.84000000000015</v>
       </c>
       <c r="E111">
@@ -9868,32 +12872,43 @@
         <v>5</v>
       </c>
       <c r="G111" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>212.20000000000002</v>
       </c>
       <c r="I111">
         <v>96</v>
       </c>
       <c r="J111" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.078823529411765</v>
       </c>
       <c r="K111" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>503.28310657439454</v>
       </c>
       <c r="L111" s="3"/>
+      <c r="M111">
+        <v>96</v>
+      </c>
+      <c r="N111" s="2">
+        <f t="shared" si="11"/>
+        <v>79.260000000000005</v>
+      </c>
+      <c r="O111" s="1">
+        <f t="shared" si="12"/>
+        <v>26159.953800000003</v>
+      </c>
     </row>
-    <row r="112" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A112">
         <v>97</v>
       </c>
       <c r="B112">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>288.87099999999998</v>
       </c>
       <c r="C112" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>931.84666666666658</v>
       </c>
       <c r="E112">
@@ -9903,32 +12918,43 @@
         <v>5</v>
       </c>
       <c r="G112" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>214.4</v>
       </c>
       <c r="I112">
         <v>97</v>
       </c>
       <c r="J112" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.96529411764705841</v>
       </c>
       <c r="K112" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>475.36648460207601</v>
       </c>
       <c r="L112" s="3"/>
+      <c r="M112">
+        <v>97</v>
+      </c>
+      <c r="N112" s="2">
+        <f t="shared" si="11"/>
+        <v>80.070000000000007</v>
+      </c>
+      <c r="O112" s="1">
+        <f t="shared" si="12"/>
+        <v>26699.972450000005</v>
+      </c>
     </row>
-    <row r="113" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A113">
         <v>98</v>
       </c>
       <c r="B113">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>291.84660000000002</v>
       </c>
       <c r="C113" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>947.98666666666668</v>
       </c>
       <c r="E113">
@@ -9938,32 +12964,43 @@
         <v>5</v>
       </c>
       <c r="G113" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>216.60000000000002</v>
       </c>
       <c r="I113">
         <v>98</v>
       </c>
       <c r="J113" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.85058823529411764</v>
       </c>
       <c r="K113" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>446.434691349481</v>
       </c>
       <c r="L113" s="3"/>
+      <c r="M113">
+        <v>98</v>
+      </c>
+      <c r="N113" s="2">
+        <f t="shared" si="11"/>
+        <v>80.88000000000001</v>
+      </c>
+      <c r="O113" s="1">
+        <f t="shared" si="12"/>
+        <v>27245.507200000004</v>
+      </c>
     </row>
-    <row r="114" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A114">
         <v>99</v>
       </c>
       <c r="B114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>294.82220000000001</v>
       </c>
       <c r="C114" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>964.26</v>
       </c>
       <c r="E114">
@@ -9973,32 +13010,43 @@
         <v>5</v>
       </c>
       <c r="G114" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>218.8</v>
       </c>
       <c r="I114">
         <v>99</v>
       </c>
       <c r="J114" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.73470588235294176</v>
       </c>
       <c r="K114" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>416.47754342560575</v>
       </c>
       <c r="L114" s="3"/>
+      <c r="M114">
+        <v>99</v>
+      </c>
+      <c r="N114" s="2">
+        <f t="shared" si="11"/>
+        <v>81.69</v>
+      </c>
+      <c r="O114" s="1">
+        <f t="shared" si="12"/>
+        <v>27796.558050000003</v>
+      </c>
     </row>
-    <row r="115" spans="1:12" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A115">
         <v>100</v>
       </c>
       <c r="B115">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>297.7978</v>
       </c>
       <c r="C115" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>980.66666666666674</v>
       </c>
       <c r="E115">
@@ -10008,21 +13056,32 @@
         <v>5</v>
       </c>
       <c r="G115" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>221.00000000000003</v>
       </c>
       <c r="I115">
         <v>100</v>
       </c>
       <c r="J115" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.61764705882352899</v>
       </c>
       <c r="K115" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>385.48486159169539</v>
       </c>
       <c r="L115" s="3"/>
+      <c r="M115">
+        <v>100</v>
+      </c>
+      <c r="N115" s="2">
+        <f t="shared" si="11"/>
+        <v>82.5</v>
+      </c>
+      <c r="O115" s="1">
+        <f t="shared" si="12"/>
+        <v>28353.125</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/DatenTabelle.xlsx
+++ b/DatenTabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvormwald\Desktop\Game2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA42A9F-123A-4A6D-9726-AAE4BBDF215B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57EAEE5-8EFA-4414-9451-CBC16711D45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E071448A-2F4A-4DEF-90F1-CE40447B3B47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E071448A-2F4A-4DEF-90F1-CE40447B3B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>upgrade max hp</t>
   </si>
@@ -66,9 +66,6 @@
   <si>
     <t>auto reg up amount</t>
   </si>
-  <si>
-    <t>1.5 + (self.player.auto_reg_amount/1.8)*(self.player.auto_reg_amount/45)</t>
-  </si>
 </sst>
 </file>
 
@@ -77,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +91,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC7832"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
@@ -118,12 +121,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4489,304 +4495,304 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3099999999999996</c:v>
+                  <c:v>2.2799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.12</c:v>
+                  <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.93</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.74</c:v>
+                  <c:v>4.62</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.55</c:v>
+                  <c:v>5.3999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.36</c:v>
+                  <c:v>6.18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.1700000000000008</c:v>
+                  <c:v>6.9600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.98</c:v>
+                  <c:v>7.74</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.7899999999999991</c:v>
+                  <c:v>8.52</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.6</c:v>
+                  <c:v>9.2999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.41</c:v>
+                  <c:v>10.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.22</c:v>
+                  <c:v>10.86</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.030000000000001</c:v>
+                  <c:v>11.64</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.840000000000002</c:v>
+                  <c:v>12.420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.65</c:v>
+                  <c:v>13.200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.46</c:v>
+                  <c:v>13.98</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.270000000000001</c:v>
+                  <c:v>14.76</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.080000000000002</c:v>
+                  <c:v>15.54</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16.890000000000004</c:v>
+                  <c:v>16.320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17.7</c:v>
+                  <c:v>17.099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18.510000000000002</c:v>
+                  <c:v>17.880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.32</c:v>
+                  <c:v>18.66</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.130000000000003</c:v>
+                  <c:v>19.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.94</c:v>
+                  <c:v>20.22</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>21.75</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>22.560000000000002</c:v>
+                  <c:v>21.78</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23.37</c:v>
+                  <c:v>22.56</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>24.180000000000003</c:v>
+                  <c:v>23.340000000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24.990000000000002</c:v>
+                  <c:v>24.12</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25.8</c:v>
+                  <c:v>24.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>26.61</c:v>
+                  <c:v>25.68</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27.42</c:v>
+                  <c:v>26.46</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>28.23</c:v>
+                  <c:v>27.24</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>29.040000000000003</c:v>
+                  <c:v>28.02</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>29.85</c:v>
+                  <c:v>28.8</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>30.66</c:v>
+                  <c:v>29.58</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>31.470000000000002</c:v>
+                  <c:v>30.360000000000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>32.28</c:v>
+                  <c:v>31.14</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>33.090000000000003</c:v>
+                  <c:v>31.92</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>33.9</c:v>
+                  <c:v>32.699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>34.71</c:v>
+                  <c:v>33.479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>35.520000000000003</c:v>
+                  <c:v>34.260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>36.33</c:v>
+                  <c:v>35.04</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>37.14</c:v>
+                  <c:v>35.82</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>37.950000000000003</c:v>
+                  <c:v>36.6</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>38.760000000000005</c:v>
+                  <c:v>37.380000000000003</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>39.57</c:v>
+                  <c:v>38.159999999999997</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>40.380000000000003</c:v>
+                  <c:v>38.94</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41.190000000000005</c:v>
+                  <c:v>39.720000000000006</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>42</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42.81</c:v>
+                  <c:v>41.28</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43.620000000000005</c:v>
+                  <c:v>42.06</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>44.430000000000007</c:v>
+                  <c:v>42.84</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>45.24</c:v>
+                  <c:v>43.62</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>46.05</c:v>
+                  <c:v>44.4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>46.860000000000007</c:v>
+                  <c:v>45.180000000000007</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>47.67</c:v>
+                  <c:v>45.96</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>48.480000000000004</c:v>
+                  <c:v>46.74</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>49.290000000000006</c:v>
+                  <c:v>47.52</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>50.1</c:v>
+                  <c:v>48.300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>50.910000000000004</c:v>
+                  <c:v>49.08</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>51.72</c:v>
+                  <c:v>49.86</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>52.530000000000008</c:v>
+                  <c:v>50.64</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>53.34</c:v>
+                  <c:v>51.42</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>54.15</c:v>
+                  <c:v>52.2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>54.96</c:v>
+                  <c:v>52.98</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>55.77</c:v>
+                  <c:v>53.760000000000005</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>56.580000000000005</c:v>
+                  <c:v>54.54</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>57.39</c:v>
+                  <c:v>55.32</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>58.2</c:v>
+                  <c:v>56.1</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>59.010000000000005</c:v>
+                  <c:v>56.88</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>59.82</c:v>
+                  <c:v>57.66</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>60.63</c:v>
+                  <c:v>58.44</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>61.440000000000005</c:v>
+                  <c:v>59.220000000000006</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>62.25</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>63.06</c:v>
+                  <c:v>60.78</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>63.870000000000005</c:v>
+                  <c:v>61.56</c:v>
                 </c:pt>
                 <c:pt idx="78">
+                  <c:v>62.34</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>63.12</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>63.9</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>64.680000000000007</c:v>
                 </c:pt>
-                <c:pt idx="79">
-                  <c:v>65.490000000000009</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>66.3</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>67.11</c:v>
-                </c:pt>
                 <c:pt idx="82">
-                  <c:v>67.92</c:v>
+                  <c:v>65.459999999999994</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>68.73</c:v>
+                  <c:v>66.239999999999995</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>69.540000000000006</c:v>
+                  <c:v>67.02000000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>70.349999999999994</c:v>
+                  <c:v>67.8</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>71.16</c:v>
+                  <c:v>68.58</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>71.970000000000013</c:v>
+                  <c:v>69.36</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>72.78</c:v>
+                  <c:v>70.14</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>73.59</c:v>
+                  <c:v>70.92</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>74.400000000000006</c:v>
+                  <c:v>71.7</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>75.209999999999994</c:v>
+                  <c:v>72.48</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>76.02000000000001</c:v>
+                  <c:v>73.260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>76.830000000000013</c:v>
+                  <c:v>74.040000000000006</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>77.64</c:v>
+                  <c:v>74.819999999999993</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>78.45</c:v>
+                  <c:v>75.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>79.260000000000005</c:v>
+                  <c:v>76.38</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>80.070000000000007</c:v>
+                  <c:v>77.16</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>80.88000000000001</c:v>
+                  <c:v>77.940000000000012</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>81.69</c:v>
+                  <c:v>78.72</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>82.5</c:v>
+                  <c:v>79.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4828,310 +4834,310 @@
             <c:numRef>
               <c:f>Tabelle1!$O$15:$O$115</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="101"/>
-                <c:pt idx="0" formatCode="0.00">
-                  <c:v>1.125</c:v>
+                <c:pt idx="0">
+                  <c:v>0.33749999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5658777777777777</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>27.587200000000003</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00">
-                  <c:v>49.092449999999999</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00">
-                  <c:v>76.113800000000012</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>108.65124999999999</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
-                  <c:v>146.70480000000001</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00">
-                  <c:v>190.27445000000003</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>239.36020000000002</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>293.96204999999998</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00">
-                  <c:v>354.08</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00">
-                  <c:v>419.71404999999999</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>490.86420000000004</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>567.53045000000009</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00">
-                  <c:v>649.71280000000013</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00">
-                  <c:v>737.41125000000011</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00">
-                  <c:v>830.62580000000014</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00">
-                  <c:v>929.35645</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.00">
-                  <c:v>1033.6032</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.00">
-                  <c:v>1143.3660500000003</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.00">
-                  <c:v>1258.6449999999998</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="0.00">
-                  <c:v>1379.4400499999999</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="0.00">
-                  <c:v>1505.7511999999999</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="0.00">
-                  <c:v>1637.5784500000002</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0.00">
-                  <c:v>1774.9218000000001</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="0.00">
-                  <c:v>1917.78125</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="0.00">
-                  <c:v>2066.1568000000002</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="0.00">
-                  <c:v>2220.0484500000002</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="0.00">
-                  <c:v>2379.4562000000005</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="0.00">
-                  <c:v>2544.3800500000002</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="0.00">
-                  <c:v>2714.82</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="0.00">
-                  <c:v>2890.7760499999999</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="0.00">
-                  <c:v>3072.2482000000005</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="0.00">
-                  <c:v>3259.2364499999999</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="0.00">
-                  <c:v>3451.7408</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="0.00">
-                  <c:v>3649.76125</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0.00">
-                  <c:v>3853.2977999999998</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0.00">
-                  <c:v>4062.3504500000004</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="0.00">
-                  <c:v>4276.9191999999994</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="0.00">
-                  <c:v>4497.0040500000014</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="0.00">
-                  <c:v>4722.6049999999996</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="0.00">
-                  <c:v>4953.7220499999994</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="0.00">
-                  <c:v>5190.3552</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="0.00">
-                  <c:v>5432.5044499999995</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="0.00">
-                  <c:v>5680.1697999999997</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="0.00">
-                  <c:v>5933.3512500000006</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="0.00">
-                  <c:v>6192.0488000000005</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="0.00">
-                  <c:v>6456.2624500000002</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="0.00">
-                  <c:v>6725.9922000000006</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="0.00">
-                  <c:v>7001.2380500000008</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="0.00">
-                  <c:v>7282</c:v>
-                </c:pt>
-                <c:pt idx="51" formatCode="0.00">
-                  <c:v>7568.2780500000008</c:v>
-                </c:pt>
-                <c:pt idx="52" formatCode="0.00">
-                  <c:v>7860.0722000000005</c:v>
-                </c:pt>
-                <c:pt idx="53" formatCode="0.00">
-                  <c:v>8157.382450000001</c:v>
-                </c:pt>
-                <c:pt idx="54" formatCode="0.00">
-                  <c:v>8460.2088000000003</c:v>
-                </c:pt>
-                <c:pt idx="55" formatCode="0.00">
-                  <c:v>8768.5512500000004</c:v>
-                </c:pt>
-                <c:pt idx="56" formatCode="0.00">
-                  <c:v>9082.4098000000013</c:v>
-                </c:pt>
-                <c:pt idx="57" formatCode="0.00">
-                  <c:v>9401.784450000001</c:v>
-                </c:pt>
-                <c:pt idx="58" formatCode="0.00">
-                  <c:v>9726.6752000000015</c:v>
-                </c:pt>
-                <c:pt idx="59" formatCode="0.00">
-                  <c:v>10057.082050000001</c:v>
-                </c:pt>
-                <c:pt idx="60" formatCode="0.00">
-                  <c:v>10393.005000000001</c:v>
-                </c:pt>
-                <c:pt idx="61" formatCode="0.00">
-                  <c:v>10734.444050000002</c:v>
-                </c:pt>
-                <c:pt idx="62" formatCode="0.00">
-                  <c:v>11081.3992</c:v>
-                </c:pt>
-                <c:pt idx="63" formatCode="0.00">
-                  <c:v>11433.870450000002</c:v>
-                </c:pt>
-                <c:pt idx="64" formatCode="0.00">
-                  <c:v>11791.857800000002</c:v>
-                </c:pt>
-                <c:pt idx="65" formatCode="0.00">
-                  <c:v>12155.36125</c:v>
-                </c:pt>
-                <c:pt idx="66" formatCode="0.00">
-                  <c:v>12524.380799999999</c:v>
-                </c:pt>
-                <c:pt idx="67" formatCode="0.00">
-                  <c:v>12898.916450000001</c:v>
-                </c:pt>
-                <c:pt idx="68" formatCode="0.00">
-                  <c:v>13278.968200000001</c:v>
-                </c:pt>
-                <c:pt idx="69" formatCode="0.00">
-                  <c:v>13664.536050000001</c:v>
-                </c:pt>
-                <c:pt idx="70" formatCode="0.00">
-                  <c:v>14055.62</c:v>
-                </c:pt>
-                <c:pt idx="71" formatCode="0.00">
-                  <c:v>14452.220050000002</c:v>
-                </c:pt>
-                <c:pt idx="72" formatCode="0.00">
-                  <c:v>14854.3362</c:v>
-                </c:pt>
-                <c:pt idx="73" formatCode="0.00">
-                  <c:v>15261.96845</c:v>
-                </c:pt>
-                <c:pt idx="74" formatCode="0.00">
-                  <c:v>15675.116800000002</c:v>
-                </c:pt>
-                <c:pt idx="75" formatCode="0.00">
-                  <c:v>16093.78125</c:v>
-                </c:pt>
-                <c:pt idx="76" formatCode="0.00">
-                  <c:v>16517.961799999997</c:v>
-                </c:pt>
-                <c:pt idx="77" formatCode="0.00">
-                  <c:v>16947.658450000003</c:v>
-                </c:pt>
-                <c:pt idx="78" formatCode="0.00">
-                  <c:v>17382.871200000005</c:v>
-                </c:pt>
-                <c:pt idx="79" formatCode="0.00">
-                  <c:v>17823.600050000005</c:v>
-                </c:pt>
-                <c:pt idx="80" formatCode="0.00">
-                  <c:v>18269.844999999998</c:v>
-                </c:pt>
-                <c:pt idx="81" formatCode="0.00">
-                  <c:v>18721.606049999999</c:v>
-                </c:pt>
-                <c:pt idx="82" formatCode="0.00">
-                  <c:v>19178.8832</c:v>
-                </c:pt>
-                <c:pt idx="83" formatCode="0.00">
-                  <c:v>19641.676450000003</c:v>
-                </c:pt>
-                <c:pt idx="84" formatCode="0.00">
-                  <c:v>20109.985800000002</c:v>
-                </c:pt>
-                <c:pt idx="85" formatCode="0.00">
-                  <c:v>20583.811249999999</c:v>
-                </c:pt>
-                <c:pt idx="86" formatCode="0.00">
-                  <c:v>21063.152799999996</c:v>
-                </c:pt>
-                <c:pt idx="87" formatCode="0.00">
-                  <c:v>21548.010450000005</c:v>
-                </c:pt>
-                <c:pt idx="88" formatCode="0.00">
-                  <c:v>22038.3842</c:v>
-                </c:pt>
-                <c:pt idx="89" formatCode="0.00">
-                  <c:v>22534.274050000004</c:v>
-                </c:pt>
-                <c:pt idx="90" formatCode="0.00">
-                  <c:v>23035.68</c:v>
-                </c:pt>
-                <c:pt idx="91" formatCode="0.00">
-                  <c:v>23542.602049999998</c:v>
-                </c:pt>
-                <c:pt idx="92" formatCode="0.00">
-                  <c:v>24055.040200000003</c:v>
-                </c:pt>
-                <c:pt idx="93" formatCode="0.00">
-                  <c:v>24572.994450000006</c:v>
-                </c:pt>
-                <c:pt idx="94" formatCode="0.00">
-                  <c:v>25096.464799999998</c:v>
-                </c:pt>
-                <c:pt idx="95" formatCode="0.00">
-                  <c:v>25625.451250000002</c:v>
-                </c:pt>
-                <c:pt idx="96" formatCode="0.00">
-                  <c:v>26159.953800000003</c:v>
-                </c:pt>
-                <c:pt idx="97" formatCode="0.00">
-                  <c:v>26699.972450000005</c:v>
-                </c:pt>
-                <c:pt idx="98" formatCode="0.00">
-                  <c:v>27245.507200000004</c:v>
-                </c:pt>
-                <c:pt idx="99" formatCode="0.00">
-                  <c:v>27796.558050000003</c:v>
-                </c:pt>
-                <c:pt idx="100" formatCode="0.00">
-                  <c:v>28353.125</c:v>
+                  <c:v>3.27976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4045399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7118399999999987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.20166</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.873999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.728859999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.766240000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.986139999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.388559999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.973499999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.740960000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47.690939999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.823440000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.138460000000009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63.636000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69.316059999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75.178640000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.223739999999992</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>87.451360000000022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>93.861499999999978</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100.45416000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>107.22934000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>114.18704</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>121.32726</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>128.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>136.15526</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>143.84303999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>151.71334000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>159.76616000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>168.00150000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>176.41935999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>185.01974000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>193.80264</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>202.76805999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>211.916</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>221.24645999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>230.75944000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>240.45494000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>250.33296000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>260.39349999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>270.63655999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>281.06214</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>291.67023999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>302.46086000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>313.43400000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>324.58965999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>335.92783999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>347.44853999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>359.15176000000008</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>371.03750000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>383.10576000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>395.35654</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>407.78984000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>420.40565999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>433.20399999999995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>446.18486000000007</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>459.34824000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>472.69414</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>486.22256000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>499.93350000000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>513.82695999999987</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>527.90293999999994</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>542.16144000000008</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>556.60246000000006</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>571.226</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>586.03206</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>601.02064000000007</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>616.19173999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>631.54536000000007</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>647.08150000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>662.80016000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>678.70133999999985</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>694.78503999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>711.05126000000007</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>727.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>744.13126</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>760.94504000000006</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>777.94134000000008</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>795.12015999999994</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>812.48149999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>830.02536000000009</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>847.75173999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>865.66063999999983</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>883.75206000000014</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>902.02599999999995</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>920.48245999999995</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>939.12144000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>957.94293999999991</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>976.94695999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>996.13350000000014</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1015.50256</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1035.0541400000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1054.7882400000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1074.7048599999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1094.8040000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1115.0856599999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1135.5498399999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1156.1965400000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1177.02576</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1198.0374999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8367,8 +8373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C34C44D-A5A2-4DA5-BFBD-3BDB16403E2F}">
   <dimension ref="A13:Z115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -8429,9 +8435,7 @@
       <c r="O14" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="15.6" outlineLevel="1">
       <c r="A15">
@@ -8472,12 +8476,12 @@
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <f>1.5+(M15*0.95)+(M15/100)</f>
+        <f>1.5+(M15*0.77)+(M15/100)</f>
         <v>1.5</v>
       </c>
       <c r="O15" s="1">
-        <f xml:space="preserve"> (N15*0.5) *N15+(M15*2)</f>
-        <v>1.125</v>
+        <f xml:space="preserve"> (N15*0.3) *N15/2+(M15*2.5)</f>
+        <v>0.33749999999999997</v>
       </c>
       <c r="Z15" t="s">
         <v>6</v>
@@ -8521,20 +8525,21 @@
         <v>1</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" ref="N16:N79" si="4">1.5+(M16*0.8)+(M16/100)</f>
-        <v>2.3099999999999996</v>
-      </c>
-      <c r="O16" s="2">
-        <f>1.5 + (N16/1.8) * (N16/45)</f>
-        <v>1.5658777777777777</v>
-      </c>
+        <f t="shared" ref="N16:N79" si="4">1.5+(M16*0.77)+(M16/100)</f>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" ref="O16:O79" si="5" xml:space="preserve"> (N16*0.3) *N16/2+(M16*2.5)</f>
+        <v>3.27976</v>
+      </c>
+      <c r="R16" s="5"/>
     </row>
     <row r="17" spans="1:15" ht="15.6" outlineLevel="1">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17">
-        <f t="shared" ref="B17:B80" si="5">(A17*2+1)*0.2378+(A17*2.5)</f>
+        <f t="shared" ref="B17:B80" si="6">(A17*2+1)*0.2378+(A17*2.5)</f>
         <v>6.1890000000000001</v>
       </c>
       <c r="C17" s="1">
@@ -8568,11 +8573,11 @@
       </c>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>3.12</v>
+        <v>3.06</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" ref="O17:O79" si="6" xml:space="preserve"> ((N17*0.5)+(M17*3)) *N17+(M17*2)</f>
-        <v>27.587200000000003</v>
+        <f t="shared" si="5"/>
+        <v>6.4045399999999999</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.6" outlineLevel="1">
@@ -8580,7 +8585,7 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.1646000000000001</v>
       </c>
       <c r="C18" s="1">
@@ -8614,11 +8619,11 @@
       </c>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>3.93</v>
+        <v>3.84</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="6"/>
-        <v>49.092449999999999</v>
+        <f t="shared" si="5"/>
+        <v>9.7118399999999987</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.6" outlineLevel="1">
@@ -8626,7 +8631,7 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12.1402</v>
       </c>
       <c r="C19" s="1">
@@ -8660,11 +8665,11 @@
       </c>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>4.74</v>
+        <v>4.62</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="6"/>
-        <v>76.113800000000012</v>
+        <f t="shared" si="5"/>
+        <v>13.20166</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.6" outlineLevel="1">
@@ -8672,7 +8677,7 @@
         <v>5</v>
       </c>
       <c r="B20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.1158</v>
       </c>
       <c r="C20" s="1">
@@ -8706,11 +8711,11 @@
       </c>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>5.55</v>
+        <v>5.3999999999999995</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="6"/>
-        <v>108.65124999999999</v>
+        <f t="shared" si="5"/>
+        <v>16.873999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.6" outlineLevel="1">
@@ -8718,7 +8723,7 @@
         <v>6</v>
       </c>
       <c r="B21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.0914</v>
       </c>
       <c r="C21" s="1">
@@ -8752,11 +8757,11 @@
       </c>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>6.36</v>
+        <v>6.18</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="6"/>
-        <v>146.70480000000001</v>
+        <f t="shared" si="5"/>
+        <v>20.728859999999997</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.6" outlineLevel="1">
@@ -8764,7 +8769,7 @@
         <v>7</v>
       </c>
       <c r="B22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21.067</v>
       </c>
       <c r="C22" s="1">
@@ -8798,11 +8803,11 @@
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>7.1700000000000008</v>
+        <v>6.9600000000000009</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="6"/>
-        <v>190.27445000000003</v>
+        <f t="shared" si="5"/>
+        <v>24.766240000000003</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.6" outlineLevel="1">
@@ -8810,7 +8815,7 @@
         <v>8</v>
       </c>
       <c r="B23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24.0426</v>
       </c>
       <c r="C23" s="1">
@@ -8844,11 +8849,11 @@
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>7.98</v>
+        <v>7.74</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="6"/>
-        <v>239.36020000000002</v>
+        <f t="shared" si="5"/>
+        <v>28.986139999999999</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.6" outlineLevel="1">
@@ -8856,7 +8861,7 @@
         <v>9</v>
       </c>
       <c r="B24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.0182</v>
       </c>
       <c r="C24" s="1">
@@ -8890,11 +8895,11 @@
       </c>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>8.7899999999999991</v>
+        <v>8.52</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="6"/>
-        <v>293.96204999999998</v>
+        <f t="shared" si="5"/>
+        <v>33.388559999999998</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.6" outlineLevel="1">
@@ -8902,7 +8907,7 @@
         <v>10</v>
       </c>
       <c r="B25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.9938</v>
       </c>
       <c r="C25" s="1">
@@ -8936,11 +8941,11 @@
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>9.6</v>
+        <v>9.2999999999999989</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="6"/>
-        <v>354.08</v>
+        <f t="shared" si="5"/>
+        <v>37.973499999999994</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.6" outlineLevel="1">
@@ -8948,7 +8953,7 @@
         <v>11</v>
       </c>
       <c r="B26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32.9694</v>
       </c>
       <c r="C26" s="1">
@@ -8982,11 +8987,11 @@
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>10.41</v>
+        <v>10.08</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="6"/>
-        <v>419.71404999999999</v>
+        <f t="shared" si="5"/>
+        <v>42.740960000000001</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.6" outlineLevel="1">
@@ -8994,7 +8999,7 @@
         <v>12</v>
       </c>
       <c r="B27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35.945</v>
       </c>
       <c r="C27" s="1">
@@ -9028,11 +9033,11 @@
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>11.22</v>
+        <v>10.86</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="6"/>
-        <v>490.86420000000004</v>
+        <f t="shared" si="5"/>
+        <v>47.690939999999998</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.6" outlineLevel="1">
@@ -9040,7 +9045,7 @@
         <v>13</v>
       </c>
       <c r="B28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>38.9206</v>
       </c>
       <c r="C28" s="1">
@@ -9074,11 +9079,11 @@
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>12.030000000000001</v>
+        <v>11.64</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="6"/>
-        <v>567.53045000000009</v>
+        <f t="shared" si="5"/>
+        <v>52.823440000000005</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.6" outlineLevel="1">
@@ -9086,7 +9091,7 @@
         <v>14</v>
       </c>
       <c r="B29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41.8962</v>
       </c>
       <c r="C29" s="1">
@@ -9120,11 +9125,11 @@
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>12.840000000000002</v>
+        <v>12.420000000000002</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="6"/>
-        <v>649.71280000000013</v>
+        <f t="shared" si="5"/>
+        <v>58.138460000000009</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.6" outlineLevel="1">
@@ -9132,7 +9137,7 @@
         <v>15</v>
       </c>
       <c r="B30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44.8718</v>
       </c>
       <c r="C30" s="1">
@@ -9166,11 +9171,11 @@
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>13.65</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" si="6"/>
-        <v>737.41125000000011</v>
+        <f t="shared" si="5"/>
+        <v>63.636000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.6" outlineLevel="1">
@@ -9178,7 +9183,7 @@
         <v>16</v>
       </c>
       <c r="B31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>47.8474</v>
       </c>
       <c r="C31" s="1">
@@ -9212,11 +9217,11 @@
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>14.46</v>
+        <v>13.98</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="6"/>
-        <v>830.62580000000014</v>
+        <f t="shared" si="5"/>
+        <v>69.316059999999993</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.6" outlineLevel="1">
@@ -9224,7 +9229,7 @@
         <v>17</v>
       </c>
       <c r="B32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50.823</v>
       </c>
       <c r="C32" s="1">
@@ -9258,11 +9263,11 @@
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>15.270000000000001</v>
+        <v>14.76</v>
       </c>
       <c r="O32" s="1">
-        <f t="shared" si="6"/>
-        <v>929.35645</v>
+        <f t="shared" si="5"/>
+        <v>75.178640000000001</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.6" outlineLevel="1">
@@ -9270,7 +9275,7 @@
         <v>18</v>
       </c>
       <c r="B33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.7986</v>
       </c>
       <c r="C33" s="1">
@@ -9304,11 +9309,11 @@
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>16.080000000000002</v>
+        <v>15.54</v>
       </c>
       <c r="O33" s="1">
-        <f t="shared" si="6"/>
-        <v>1033.6032</v>
+        <f t="shared" si="5"/>
+        <v>81.223739999999992</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.6" outlineLevel="1">
@@ -9316,7 +9321,7 @@
         <v>19</v>
       </c>
       <c r="B34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.7742</v>
       </c>
       <c r="C34" s="1">
@@ -9350,11 +9355,11 @@
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>16.890000000000004</v>
+        <v>16.320000000000004</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" si="6"/>
-        <v>1143.3660500000003</v>
+        <f t="shared" si="5"/>
+        <v>87.451360000000022</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.6" outlineLevel="1">
@@ -9362,7 +9367,7 @@
         <v>20</v>
       </c>
       <c r="B35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.7498</v>
       </c>
       <c r="C35" s="1">
@@ -9396,11 +9401,11 @@
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>17.7</v>
+        <v>17.099999999999998</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" si="6"/>
-        <v>1258.6449999999998</v>
+        <f t="shared" si="5"/>
+        <v>93.861499999999978</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.6" outlineLevel="1">
@@ -9408,7 +9413,7 @@
         <v>21</v>
       </c>
       <c r="B36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.7254</v>
       </c>
       <c r="C36" s="1">
@@ -9442,11 +9447,11 @@
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>18.510000000000002</v>
+        <v>17.880000000000003</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" si="6"/>
-        <v>1379.4400499999999</v>
+        <f t="shared" si="5"/>
+        <v>100.45416000000002</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.6" outlineLevel="1">
@@ -9454,7 +9459,7 @@
         <v>22</v>
       </c>
       <c r="B37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.700999999999993</v>
       </c>
       <c r="C37" s="1">
@@ -9488,11 +9493,11 @@
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>19.32</v>
+        <v>18.66</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" si="6"/>
-        <v>1505.7511999999999</v>
+        <f t="shared" si="5"/>
+        <v>107.22934000000001</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.6" outlineLevel="1">
@@ -9500,7 +9505,7 @@
         <v>23</v>
       </c>
       <c r="B38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.676600000000008</v>
       </c>
       <c r="C38" s="1">
@@ -9534,11 +9539,11 @@
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>20.130000000000003</v>
+        <v>19.440000000000001</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="6"/>
-        <v>1637.5784500000002</v>
+        <f t="shared" si="5"/>
+        <v>114.18704</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.6" outlineLevel="1">
@@ -9546,7 +9551,7 @@
         <v>24</v>
       </c>
       <c r="B39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71.652199999999993</v>
       </c>
       <c r="C39" s="1">
@@ -9580,11 +9585,11 @@
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>20.94</v>
+        <v>20.22</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="6"/>
-        <v>1774.9218000000001</v>
+        <f t="shared" si="5"/>
+        <v>121.32726</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.6" outlineLevel="1">
@@ -9592,7 +9597,7 @@
         <v>25</v>
       </c>
       <c r="B40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>74.627800000000008</v>
       </c>
       <c r="C40" s="1">
@@ -9626,11 +9631,11 @@
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>21.75</v>
+        <v>21</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="6"/>
-        <v>1917.78125</v>
+        <f t="shared" si="5"/>
+        <v>128.64999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.6" outlineLevel="1">
@@ -9638,7 +9643,7 @@
         <v>26</v>
       </c>
       <c r="B41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>77.603399999999993</v>
       </c>
       <c r="C41" s="1">
@@ -9672,11 +9677,11 @@
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>22.560000000000002</v>
+        <v>21.78</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" si="6"/>
-        <v>2066.1568000000002</v>
+        <f t="shared" si="5"/>
+        <v>136.15526</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.6" outlineLevel="1">
@@ -9684,7 +9689,7 @@
         <v>27</v>
       </c>
       <c r="B42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>80.579000000000008</v>
       </c>
       <c r="C42" s="1">
@@ -9718,11 +9723,11 @@
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>23.37</v>
+        <v>22.56</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="6"/>
-        <v>2220.0484500000002</v>
+        <f t="shared" si="5"/>
+        <v>143.84303999999997</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.6" outlineLevel="1">
@@ -9730,7 +9735,7 @@
         <v>28</v>
       </c>
       <c r="B43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>83.554599999999994</v>
       </c>
       <c r="C43" s="1">
@@ -9764,11 +9769,11 @@
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>24.180000000000003</v>
+        <v>23.340000000000003</v>
       </c>
       <c r="O43" s="1">
-        <f t="shared" si="6"/>
-        <v>2379.4562000000005</v>
+        <f t="shared" si="5"/>
+        <v>151.71334000000002</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15.6" outlineLevel="1">
@@ -9776,7 +9781,7 @@
         <v>29</v>
       </c>
       <c r="B44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>86.530200000000008</v>
       </c>
       <c r="C44" s="1">
@@ -9810,11 +9815,11 @@
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>24.990000000000002</v>
+        <v>24.12</v>
       </c>
       <c r="O44" s="1">
-        <f t="shared" si="6"/>
-        <v>2544.3800500000002</v>
+        <f t="shared" si="5"/>
+        <v>159.76616000000001</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="15.6" outlineLevel="1">
@@ -9822,7 +9827,7 @@
         <v>30</v>
       </c>
       <c r="B45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>89.505799999999994</v>
       </c>
       <c r="C45" s="1">
@@ -9856,11 +9861,11 @@
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>25.8</v>
+        <v>24.900000000000002</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" si="6"/>
-        <v>2714.82</v>
+        <f t="shared" si="5"/>
+        <v>168.00150000000002</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="15.6" outlineLevel="1">
@@ -9868,7 +9873,7 @@
         <v>31</v>
       </c>
       <c r="B46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>92.481400000000008</v>
       </c>
       <c r="C46" s="1">
@@ -9902,11 +9907,11 @@
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>26.61</v>
+        <v>25.68</v>
       </c>
       <c r="O46" s="1">
-        <f t="shared" si="6"/>
-        <v>2890.7760499999999</v>
+        <f t="shared" si="5"/>
+        <v>176.41935999999998</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="15.6" outlineLevel="1">
@@ -9914,7 +9919,7 @@
         <v>32</v>
       </c>
       <c r="B47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>95.456999999999994</v>
       </c>
       <c r="C47" s="1">
@@ -9948,11 +9953,11 @@
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>27.42</v>
+        <v>26.46</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" si="6"/>
-        <v>3072.2482000000005</v>
+        <f t="shared" si="5"/>
+        <v>185.01974000000001</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15.6" outlineLevel="1">
@@ -9960,7 +9965,7 @@
         <v>33</v>
       </c>
       <c r="B48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>98.432600000000008</v>
       </c>
       <c r="C48" s="1">
@@ -9994,11 +9999,11 @@
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>28.23</v>
+        <v>27.24</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" si="6"/>
-        <v>3259.2364499999999</v>
+        <f t="shared" si="5"/>
+        <v>193.80264</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="15.6" outlineLevel="1">
@@ -10006,7 +10011,7 @@
         <v>34</v>
       </c>
       <c r="B49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>101.40819999999999</v>
       </c>
       <c r="C49" s="1">
@@ -10040,11 +10045,11 @@
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>29.040000000000003</v>
+        <v>28.02</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="6"/>
-        <v>3451.7408</v>
+        <f t="shared" si="5"/>
+        <v>202.76805999999999</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="15.6" outlineLevel="1">
@@ -10052,7 +10057,7 @@
         <v>35</v>
       </c>
       <c r="B50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>104.38380000000001</v>
       </c>
       <c r="C50" s="1">
@@ -10086,11 +10091,11 @@
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
-        <v>29.85</v>
+        <v>28.8</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="6"/>
-        <v>3649.76125</v>
+        <f t="shared" si="5"/>
+        <v>211.916</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.6" outlineLevel="1">
@@ -10098,7 +10103,7 @@
         <v>36</v>
       </c>
       <c r="B51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>107.35939999999999</v>
       </c>
       <c r="C51" s="1">
@@ -10132,11 +10137,11 @@
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>30.66</v>
+        <v>29.58</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="6"/>
-        <v>3853.2977999999998</v>
+        <f t="shared" si="5"/>
+        <v>221.24645999999998</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="15.6" outlineLevel="1">
@@ -10144,7 +10149,7 @@
         <v>37</v>
       </c>
       <c r="B52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>110.33500000000001</v>
       </c>
       <c r="C52" s="1">
@@ -10178,11 +10183,11 @@
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>31.470000000000002</v>
+        <v>30.360000000000003</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" si="6"/>
-        <v>4062.3504500000004</v>
+        <f t="shared" si="5"/>
+        <v>230.75944000000001</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="15.6" outlineLevel="1">
@@ -10190,7 +10195,7 @@
         <v>38</v>
       </c>
       <c r="B53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>113.31059999999999</v>
       </c>
       <c r="C53" s="1">
@@ -10224,11 +10229,11 @@
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>32.28</v>
+        <v>31.14</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="6"/>
-        <v>4276.9191999999994</v>
+        <f t="shared" si="5"/>
+        <v>240.45494000000002</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="15.6" outlineLevel="1">
@@ -10236,7 +10241,7 @@
         <v>39</v>
       </c>
       <c r="B54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>116.28620000000001</v>
       </c>
       <c r="C54" s="1">
@@ -10270,11 +10275,11 @@
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>33.090000000000003</v>
+        <v>31.92</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="6"/>
-        <v>4497.0040500000014</v>
+        <f t="shared" si="5"/>
+        <v>250.33296000000001</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="15.6" outlineLevel="1">
@@ -10282,7 +10287,7 @@
         <v>40</v>
       </c>
       <c r="B55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>119.26179999999999</v>
       </c>
       <c r="C55" s="1">
@@ -10316,11 +10321,11 @@
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>33.9</v>
+        <v>32.699999999999996</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="6"/>
-        <v>4722.6049999999996</v>
+        <f t="shared" si="5"/>
+        <v>260.39349999999996</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="15.6" outlineLevel="1">
@@ -10328,7 +10333,7 @@
         <v>41</v>
       </c>
       <c r="B56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>122.23740000000001</v>
       </c>
       <c r="C56" s="1">
@@ -10362,11 +10367,11 @@
       </c>
       <c r="N56" s="2">
         <f t="shared" si="4"/>
-        <v>34.71</v>
+        <v>33.479999999999997</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="6"/>
-        <v>4953.7220499999994</v>
+        <f t="shared" si="5"/>
+        <v>270.63655999999997</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="15.6" outlineLevel="1">
@@ -10374,7 +10379,7 @@
         <v>42</v>
       </c>
       <c r="B57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>125.21299999999999</v>
       </c>
       <c r="C57" s="1">
@@ -10408,11 +10413,11 @@
       </c>
       <c r="N57" s="2">
         <f t="shared" si="4"/>
-        <v>35.520000000000003</v>
+        <v>34.260000000000005</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="6"/>
-        <v>5190.3552</v>
+        <f t="shared" si="5"/>
+        <v>281.06214</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="15.6" outlineLevel="1">
@@ -10420,7 +10425,7 @@
         <v>43</v>
       </c>
       <c r="B58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>128.18860000000001</v>
       </c>
       <c r="C58" s="1">
@@ -10454,11 +10459,11 @@
       </c>
       <c r="N58" s="2">
         <f t="shared" si="4"/>
-        <v>36.33</v>
+        <v>35.04</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" si="6"/>
-        <v>5432.5044499999995</v>
+        <f t="shared" si="5"/>
+        <v>291.67023999999998</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="15.6" outlineLevel="1">
@@ -10466,7 +10471,7 @@
         <v>44</v>
       </c>
       <c r="B59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>131.16419999999999</v>
       </c>
       <c r="C59" s="1">
@@ -10500,11 +10505,11 @@
       </c>
       <c r="N59" s="2">
         <f t="shared" si="4"/>
-        <v>37.14</v>
+        <v>35.82</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="6"/>
-        <v>5680.1697999999997</v>
+        <f t="shared" si="5"/>
+        <v>302.46086000000003</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="15.6" outlineLevel="1">
@@ -10512,7 +10517,7 @@
         <v>45</v>
       </c>
       <c r="B60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>134.13980000000001</v>
       </c>
       <c r="C60" s="1">
@@ -10546,11 +10551,11 @@
       </c>
       <c r="N60" s="2">
         <f t="shared" si="4"/>
-        <v>37.950000000000003</v>
+        <v>36.6</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="6"/>
-        <v>5933.3512500000006</v>
+        <f t="shared" si="5"/>
+        <v>313.43400000000003</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="15.6" outlineLevel="1">
@@ -10558,7 +10563,7 @@
         <v>46</v>
       </c>
       <c r="B61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>137.11539999999999</v>
       </c>
       <c r="C61" s="1">
@@ -10592,11 +10597,11 @@
       </c>
       <c r="N61" s="2">
         <f t="shared" si="4"/>
-        <v>38.760000000000005</v>
+        <v>37.380000000000003</v>
       </c>
       <c r="O61" s="1">
-        <f t="shared" si="6"/>
-        <v>6192.0488000000005</v>
+        <f t="shared" si="5"/>
+        <v>324.58965999999998</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="15.6" outlineLevel="1">
@@ -10604,7 +10609,7 @@
         <v>47</v>
       </c>
       <c r="B62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>140.09100000000001</v>
       </c>
       <c r="C62" s="1">
@@ -10638,11 +10643,11 @@
       </c>
       <c r="N62" s="2">
         <f t="shared" si="4"/>
-        <v>39.57</v>
+        <v>38.159999999999997</v>
       </c>
       <c r="O62" s="1">
-        <f t="shared" si="6"/>
-        <v>6456.2624500000002</v>
+        <f t="shared" si="5"/>
+        <v>335.92783999999995</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="15.6" outlineLevel="1">
@@ -10650,7 +10655,7 @@
         <v>48</v>
       </c>
       <c r="B63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>143.06659999999999</v>
       </c>
       <c r="C63" s="1">
@@ -10684,11 +10689,11 @@
       </c>
       <c r="N63" s="2">
         <f t="shared" si="4"/>
-        <v>40.380000000000003</v>
+        <v>38.94</v>
       </c>
       <c r="O63" s="1">
-        <f t="shared" si="6"/>
-        <v>6725.9922000000006</v>
+        <f t="shared" si="5"/>
+        <v>347.44853999999998</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="15.6" outlineLevel="1">
@@ -10696,7 +10701,7 @@
         <v>49</v>
       </c>
       <c r="B64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>146.04220000000001</v>
       </c>
       <c r="C64" s="1">
@@ -10730,11 +10735,11 @@
       </c>
       <c r="N64" s="2">
         <f t="shared" si="4"/>
-        <v>41.190000000000005</v>
+        <v>39.720000000000006</v>
       </c>
       <c r="O64" s="1">
-        <f t="shared" si="6"/>
-        <v>7001.2380500000008</v>
+        <f t="shared" si="5"/>
+        <v>359.15176000000008</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="15.6" outlineLevel="1">
@@ -10742,7 +10747,7 @@
         <v>50</v>
       </c>
       <c r="B65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>149.01779999999999</v>
       </c>
       <c r="C65" s="1">
@@ -10776,11 +10781,11 @@
       </c>
       <c r="N65" s="2">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>40.5</v>
       </c>
       <c r="O65" s="1">
-        <f t="shared" si="6"/>
-        <v>7282</v>
+        <f t="shared" si="5"/>
+        <v>371.03750000000002</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="15.6" outlineLevel="1">
@@ -10788,7 +10793,7 @@
         <v>51</v>
       </c>
       <c r="B66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>151.99340000000001</v>
       </c>
       <c r="C66" s="1">
@@ -10822,11 +10827,11 @@
       </c>
       <c r="N66" s="2">
         <f t="shared" si="4"/>
-        <v>42.81</v>
+        <v>41.28</v>
       </c>
       <c r="O66" s="1">
-        <f t="shared" si="6"/>
-        <v>7568.2780500000008</v>
+        <f t="shared" si="5"/>
+        <v>383.10576000000003</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="15.6" outlineLevel="1">
@@ -10834,7 +10839,7 @@
         <v>52</v>
       </c>
       <c r="B67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>154.96899999999999</v>
       </c>
       <c r="C67" s="1">
@@ -10868,11 +10873,11 @@
       </c>
       <c r="N67" s="2">
         <f t="shared" si="4"/>
-        <v>43.620000000000005</v>
+        <v>42.06</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" si="6"/>
-        <v>7860.0722000000005</v>
+        <f t="shared" si="5"/>
+        <v>395.35654</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="15.6" outlineLevel="1">
@@ -10880,7 +10885,7 @@
         <v>53</v>
       </c>
       <c r="B68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>157.94460000000001</v>
       </c>
       <c r="C68" s="1">
@@ -10914,11 +10919,11 @@
       </c>
       <c r="N68" s="2">
         <f t="shared" si="4"/>
-        <v>44.430000000000007</v>
+        <v>42.84</v>
       </c>
       <c r="O68" s="1">
-        <f t="shared" si="6"/>
-        <v>8157.382450000001</v>
+        <f t="shared" si="5"/>
+        <v>407.78984000000003</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="15.6" outlineLevel="1">
@@ -10926,7 +10931,7 @@
         <v>54</v>
       </c>
       <c r="B69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>160.92019999999999</v>
       </c>
       <c r="C69" s="1">
@@ -10960,11 +10965,11 @@
       </c>
       <c r="N69" s="2">
         <f t="shared" si="4"/>
-        <v>45.24</v>
+        <v>43.62</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" si="6"/>
-        <v>8460.2088000000003</v>
+        <f t="shared" si="5"/>
+        <v>420.40565999999995</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="15.6" outlineLevel="1">
@@ -10972,7 +10977,7 @@
         <v>55</v>
       </c>
       <c r="B70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>163.89580000000001</v>
       </c>
       <c r="C70" s="1">
@@ -11006,11 +11011,11 @@
       </c>
       <c r="N70" s="2">
         <f t="shared" si="4"/>
-        <v>46.05</v>
+        <v>44.4</v>
       </c>
       <c r="O70" s="1">
-        <f t="shared" si="6"/>
-        <v>8768.5512500000004</v>
+        <f t="shared" si="5"/>
+        <v>433.20399999999995</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.6" outlineLevel="1">
@@ -11018,7 +11023,7 @@
         <v>56</v>
       </c>
       <c r="B71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>166.87139999999999</v>
       </c>
       <c r="C71" s="1">
@@ -11052,11 +11057,11 @@
       </c>
       <c r="N71" s="2">
         <f t="shared" si="4"/>
-        <v>46.860000000000007</v>
+        <v>45.180000000000007</v>
       </c>
       <c r="O71" s="1">
-        <f t="shared" si="6"/>
-        <v>9082.4098000000013</v>
+        <f t="shared" si="5"/>
+        <v>446.18486000000007</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="15.6" outlineLevel="1">
@@ -11064,7 +11069,7 @@
         <v>57</v>
       </c>
       <c r="B72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>169.84700000000001</v>
       </c>
       <c r="C72" s="1">
@@ -11098,11 +11103,11 @@
       </c>
       <c r="N72" s="2">
         <f t="shared" si="4"/>
-        <v>47.67</v>
+        <v>45.96</v>
       </c>
       <c r="O72" s="1">
-        <f t="shared" si="6"/>
-        <v>9401.784450000001</v>
+        <f t="shared" si="5"/>
+        <v>459.34824000000003</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="15.6" outlineLevel="1">
@@ -11110,7 +11115,7 @@
         <v>58</v>
       </c>
       <c r="B73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>172.82259999999999</v>
       </c>
       <c r="C73" s="1">
@@ -11144,11 +11149,11 @@
       </c>
       <c r="N73" s="2">
         <f t="shared" si="4"/>
-        <v>48.480000000000004</v>
+        <v>46.74</v>
       </c>
       <c r="O73" s="1">
-        <f t="shared" si="6"/>
-        <v>9726.6752000000015</v>
+        <f t="shared" si="5"/>
+        <v>472.69414</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="15.6" outlineLevel="1">
@@ -11156,7 +11161,7 @@
         <v>59</v>
       </c>
       <c r="B74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>175.79820000000001</v>
       </c>
       <c r="C74" s="1">
@@ -11190,11 +11195,11 @@
       </c>
       <c r="N74" s="2">
         <f t="shared" si="4"/>
-        <v>49.290000000000006</v>
+        <v>47.52</v>
       </c>
       <c r="O74" s="1">
-        <f t="shared" si="6"/>
-        <v>10057.082050000001</v>
+        <f t="shared" si="5"/>
+        <v>486.22256000000004</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="15.6" outlineLevel="1">
@@ -11202,7 +11207,7 @@
         <v>60</v>
       </c>
       <c r="B75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>178.77379999999999</v>
       </c>
       <c r="C75" s="1">
@@ -11236,11 +11241,11 @@
       </c>
       <c r="N75" s="2">
         <f t="shared" si="4"/>
-        <v>50.1</v>
+        <v>48.300000000000004</v>
       </c>
       <c r="O75" s="1">
-        <f t="shared" si="6"/>
-        <v>10393.005000000001</v>
+        <f t="shared" si="5"/>
+        <v>499.93350000000004</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="15.6" outlineLevel="1">
@@ -11248,7 +11253,7 @@
         <v>61</v>
       </c>
       <c r="B76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>181.74940000000001</v>
       </c>
       <c r="C76" s="1">
@@ -11282,11 +11287,11 @@
       </c>
       <c r="N76" s="2">
         <f t="shared" si="4"/>
-        <v>50.910000000000004</v>
+        <v>49.08</v>
       </c>
       <c r="O76" s="1">
-        <f t="shared" si="6"/>
-        <v>10734.444050000002</v>
+        <f t="shared" si="5"/>
+        <v>513.82695999999987</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="15.6" outlineLevel="1">
@@ -11294,7 +11299,7 @@
         <v>62</v>
       </c>
       <c r="B77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>184.72499999999999</v>
       </c>
       <c r="C77" s="1">
@@ -11328,11 +11333,11 @@
       </c>
       <c r="N77" s="2">
         <f t="shared" si="4"/>
-        <v>51.72</v>
+        <v>49.86</v>
       </c>
       <c r="O77" s="1">
-        <f t="shared" si="6"/>
-        <v>11081.3992</v>
+        <f t="shared" si="5"/>
+        <v>527.90293999999994</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="15.6" outlineLevel="1">
@@ -11340,7 +11345,7 @@
         <v>63</v>
       </c>
       <c r="B78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>187.70060000000001</v>
       </c>
       <c r="C78" s="1">
@@ -11374,11 +11379,11 @@
       </c>
       <c r="N78" s="2">
         <f t="shared" si="4"/>
-        <v>52.530000000000008</v>
+        <v>50.64</v>
       </c>
       <c r="O78" s="1">
-        <f t="shared" si="6"/>
-        <v>11433.870450000002</v>
+        <f t="shared" si="5"/>
+        <v>542.16144000000008</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="15.6" outlineLevel="1">
@@ -11386,7 +11391,7 @@
         <v>64</v>
       </c>
       <c r="B79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>190.67619999999999</v>
       </c>
       <c r="C79" s="1">
@@ -11420,11 +11425,11 @@
       </c>
       <c r="N79" s="2">
         <f t="shared" si="4"/>
-        <v>53.34</v>
+        <v>51.42</v>
       </c>
       <c r="O79" s="1">
-        <f t="shared" si="6"/>
-        <v>11791.857800000002</v>
+        <f t="shared" si="5"/>
+        <v>556.60246000000006</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="15.6" outlineLevel="1">
@@ -11432,7 +11437,7 @@
         <v>65</v>
       </c>
       <c r="B80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>193.65180000000001</v>
       </c>
       <c r="C80" s="1">
@@ -11465,12 +11470,12 @@
         <v>65</v>
       </c>
       <c r="N80" s="2">
-        <f t="shared" ref="N80:N115" si="11">1.5+(M80*0.8)+(M80/100)</f>
-        <v>54.15</v>
+        <f t="shared" ref="N80:N115" si="11">1.5+(M80*0.77)+(M80/100)</f>
+        <v>52.2</v>
       </c>
       <c r="O80" s="1">
-        <f t="shared" ref="O80:O115" si="12" xml:space="preserve"> ((N80*0.5)+(M80*3)) *N80+(M80*2)</f>
-        <v>12155.36125</v>
+        <f t="shared" ref="O80:O115" si="12" xml:space="preserve"> (N80*0.3) *N80/2+(M80*2.5)</f>
+        <v>571.226</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="15.6" outlineLevel="1">
@@ -11512,11 +11517,11 @@
       </c>
       <c r="N81" s="2">
         <f t="shared" si="11"/>
-        <v>54.96</v>
+        <v>52.98</v>
       </c>
       <c r="O81" s="1">
         <f t="shared" si="12"/>
-        <v>12524.380799999999</v>
+        <v>586.03206</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="15.6" outlineLevel="1">
@@ -11558,11 +11563,11 @@
       </c>
       <c r="N82" s="2">
         <f t="shared" si="11"/>
-        <v>55.77</v>
+        <v>53.760000000000005</v>
       </c>
       <c r="O82" s="1">
         <f t="shared" si="12"/>
-        <v>12898.916450000001</v>
+        <v>601.02064000000007</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="15.6" outlineLevel="1">
@@ -11604,11 +11609,11 @@
       </c>
       <c r="N83" s="2">
         <f t="shared" si="11"/>
-        <v>56.580000000000005</v>
+        <v>54.54</v>
       </c>
       <c r="O83" s="1">
         <f t="shared" si="12"/>
-        <v>13278.968200000001</v>
+        <v>616.19173999999998</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="15.6" outlineLevel="1">
@@ -11650,11 +11655,11 @@
       </c>
       <c r="N84" s="2">
         <f t="shared" si="11"/>
-        <v>57.39</v>
+        <v>55.32</v>
       </c>
       <c r="O84" s="1">
         <f t="shared" si="12"/>
-        <v>13664.536050000001</v>
+        <v>631.54536000000007</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="15.6" outlineLevel="1">
@@ -11696,11 +11701,11 @@
       </c>
       <c r="N85" s="2">
         <f t="shared" si="11"/>
-        <v>58.2</v>
+        <v>56.1</v>
       </c>
       <c r="O85" s="1">
         <f t="shared" si="12"/>
-        <v>14055.62</v>
+        <v>647.08150000000001</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="15.6" outlineLevel="1">
@@ -11742,11 +11747,11 @@
       </c>
       <c r="N86" s="2">
         <f t="shared" si="11"/>
-        <v>59.010000000000005</v>
+        <v>56.88</v>
       </c>
       <c r="O86" s="1">
         <f t="shared" si="12"/>
-        <v>14452.220050000002</v>
+        <v>662.80016000000001</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="15.6" outlineLevel="1">
@@ -11788,11 +11793,11 @@
       </c>
       <c r="N87" s="2">
         <f t="shared" si="11"/>
-        <v>59.82</v>
+        <v>57.66</v>
       </c>
       <c r="O87" s="1">
         <f t="shared" si="12"/>
-        <v>14854.3362</v>
+        <v>678.70133999999985</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="15.6" outlineLevel="1">
@@ -11834,11 +11839,11 @@
       </c>
       <c r="N88" s="2">
         <f t="shared" si="11"/>
-        <v>60.63</v>
+        <v>58.44</v>
       </c>
       <c r="O88" s="1">
         <f t="shared" si="12"/>
-        <v>15261.96845</v>
+        <v>694.78503999999998</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="15.6" outlineLevel="1">
@@ -11880,11 +11885,11 @@
       </c>
       <c r="N89" s="2">
         <f t="shared" si="11"/>
-        <v>61.440000000000005</v>
+        <v>59.220000000000006</v>
       </c>
       <c r="O89" s="1">
         <f t="shared" si="12"/>
-        <v>15675.116800000002</v>
+        <v>711.05126000000007</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="15.6" outlineLevel="1">
@@ -11926,11 +11931,11 @@
       </c>
       <c r="N90" s="2">
         <f t="shared" si="11"/>
-        <v>62.25</v>
+        <v>60</v>
       </c>
       <c r="O90" s="1">
         <f t="shared" si="12"/>
-        <v>16093.78125</v>
+        <v>727.5</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.6" outlineLevel="1">
@@ -11972,11 +11977,11 @@
       </c>
       <c r="N91" s="2">
         <f t="shared" si="11"/>
-        <v>63.06</v>
+        <v>60.78</v>
       </c>
       <c r="O91" s="1">
         <f t="shared" si="12"/>
-        <v>16517.961799999997</v>
+        <v>744.13126</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="15.6" outlineLevel="1">
@@ -12018,11 +12023,11 @@
       </c>
       <c r="N92" s="2">
         <f t="shared" si="11"/>
-        <v>63.870000000000005</v>
+        <v>61.56</v>
       </c>
       <c r="O92" s="1">
         <f t="shared" si="12"/>
-        <v>16947.658450000003</v>
+        <v>760.94504000000006</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="15.6" outlineLevel="1">
@@ -12064,11 +12069,11 @@
       </c>
       <c r="N93" s="2">
         <f t="shared" si="11"/>
-        <v>64.680000000000007</v>
+        <v>62.34</v>
       </c>
       <c r="O93" s="1">
         <f t="shared" si="12"/>
-        <v>17382.871200000005</v>
+        <v>777.94134000000008</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="15.6" outlineLevel="1">
@@ -12110,11 +12115,11 @@
       </c>
       <c r="N94" s="2">
         <f t="shared" si="11"/>
-        <v>65.490000000000009</v>
+        <v>63.12</v>
       </c>
       <c r="O94" s="1">
         <f t="shared" si="12"/>
-        <v>17823.600050000005</v>
+        <v>795.12015999999994</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="15.6" outlineLevel="1">
@@ -12156,11 +12161,11 @@
       </c>
       <c r="N95" s="2">
         <f t="shared" si="11"/>
-        <v>66.3</v>
+        <v>63.9</v>
       </c>
       <c r="O95" s="1">
         <f t="shared" si="12"/>
-        <v>18269.844999999998</v>
+        <v>812.48149999999998</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.6" outlineLevel="1">
@@ -12202,11 +12207,11 @@
       </c>
       <c r="N96" s="2">
         <f t="shared" si="11"/>
-        <v>67.11</v>
+        <v>64.680000000000007</v>
       </c>
       <c r="O96" s="1">
         <f t="shared" si="12"/>
-        <v>18721.606049999999</v>
+        <v>830.02536000000009</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="15.6" outlineLevel="1">
@@ -12248,11 +12253,11 @@
       </c>
       <c r="N97" s="2">
         <f t="shared" si="11"/>
-        <v>67.92</v>
+        <v>65.459999999999994</v>
       </c>
       <c r="O97" s="1">
         <f t="shared" si="12"/>
-        <v>19178.8832</v>
+        <v>847.75173999999993</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="15.6" outlineLevel="1">
@@ -12294,11 +12299,11 @@
       </c>
       <c r="N98" s="2">
         <f t="shared" si="11"/>
-        <v>68.73</v>
+        <v>66.239999999999995</v>
       </c>
       <c r="O98" s="1">
         <f t="shared" si="12"/>
-        <v>19641.676450000003</v>
+        <v>865.66063999999983</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="15.6" outlineLevel="1">
@@ -12340,11 +12345,11 @@
       </c>
       <c r="N99" s="2">
         <f t="shared" si="11"/>
-        <v>69.540000000000006</v>
+        <v>67.02000000000001</v>
       </c>
       <c r="O99" s="1">
         <f t="shared" si="12"/>
-        <v>20109.985800000002</v>
+        <v>883.75206000000014</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="15.6" outlineLevel="1">
@@ -12386,11 +12391,11 @@
       </c>
       <c r="N100" s="2">
         <f t="shared" si="11"/>
-        <v>70.349999999999994</v>
+        <v>67.8</v>
       </c>
       <c r="O100" s="1">
         <f t="shared" si="12"/>
-        <v>20583.811249999999</v>
+        <v>902.02599999999995</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="15.6" outlineLevel="1">
@@ -12432,11 +12437,11 @@
       </c>
       <c r="N101" s="2">
         <f t="shared" si="11"/>
-        <v>71.16</v>
+        <v>68.58</v>
       </c>
       <c r="O101" s="1">
         <f t="shared" si="12"/>
-        <v>21063.152799999996</v>
+        <v>920.48245999999995</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="15.6" outlineLevel="1">
@@ -12478,11 +12483,11 @@
       </c>
       <c r="N102" s="2">
         <f t="shared" si="11"/>
-        <v>71.970000000000013</v>
+        <v>69.36</v>
       </c>
       <c r="O102" s="1">
         <f t="shared" si="12"/>
-        <v>21548.010450000005</v>
+        <v>939.12144000000001</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="15.6" outlineLevel="1">
@@ -12524,11 +12529,11 @@
       </c>
       <c r="N103" s="2">
         <f t="shared" si="11"/>
-        <v>72.78</v>
+        <v>70.14</v>
       </c>
       <c r="O103" s="1">
         <f t="shared" si="12"/>
-        <v>22038.3842</v>
+        <v>957.94293999999991</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="15.6" outlineLevel="1">
@@ -12570,11 +12575,11 @@
       </c>
       <c r="N104" s="2">
         <f t="shared" si="11"/>
-        <v>73.59</v>
+        <v>70.92</v>
       </c>
       <c r="O104" s="1">
         <f t="shared" si="12"/>
-        <v>22534.274050000004</v>
+        <v>976.94695999999999</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="15.6" outlineLevel="1">
@@ -12616,11 +12621,11 @@
       </c>
       <c r="N105" s="2">
         <f t="shared" si="11"/>
-        <v>74.400000000000006</v>
+        <v>71.7</v>
       </c>
       <c r="O105" s="1">
         <f t="shared" si="12"/>
-        <v>23035.68</v>
+        <v>996.13350000000014</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="15.6" outlineLevel="1">
@@ -12662,11 +12667,11 @@
       </c>
       <c r="N106" s="2">
         <f t="shared" si="11"/>
-        <v>75.209999999999994</v>
+        <v>72.48</v>
       </c>
       <c r="O106" s="1">
         <f t="shared" si="12"/>
-        <v>23542.602049999998</v>
+        <v>1015.50256</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="15.6" outlineLevel="1">
@@ -12708,11 +12713,11 @@
       </c>
       <c r="N107" s="2">
         <f t="shared" si="11"/>
-        <v>76.02000000000001</v>
+        <v>73.260000000000005</v>
       </c>
       <c r="O107" s="1">
         <f t="shared" si="12"/>
-        <v>24055.040200000003</v>
+        <v>1035.0541400000002</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="15.6" outlineLevel="1">
@@ -12754,11 +12759,11 @@
       </c>
       <c r="N108" s="2">
         <f t="shared" si="11"/>
-        <v>76.830000000000013</v>
+        <v>74.040000000000006</v>
       </c>
       <c r="O108" s="1">
         <f t="shared" si="12"/>
-        <v>24572.994450000006</v>
+        <v>1054.7882400000001</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="15.6" outlineLevel="1">
@@ -12800,11 +12805,11 @@
       </c>
       <c r="N109" s="2">
         <f t="shared" si="11"/>
-        <v>77.64</v>
+        <v>74.819999999999993</v>
       </c>
       <c r="O109" s="1">
         <f t="shared" si="12"/>
-        <v>25096.464799999998</v>
+        <v>1074.7048599999998</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="15.6" outlineLevel="1">
@@ -12846,11 +12851,11 @@
       </c>
       <c r="N110" s="2">
         <f t="shared" si="11"/>
-        <v>78.45</v>
+        <v>75.600000000000009</v>
       </c>
       <c r="O110" s="1">
         <f t="shared" si="12"/>
-        <v>25625.451250000002</v>
+        <v>1094.8040000000001</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="15.6" outlineLevel="1">
@@ -12892,11 +12897,11 @@
       </c>
       <c r="N111" s="2">
         <f t="shared" si="11"/>
-        <v>79.260000000000005</v>
+        <v>76.38</v>
       </c>
       <c r="O111" s="1">
         <f t="shared" si="12"/>
-        <v>26159.953800000003</v>
+        <v>1115.0856599999997</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="15.6" outlineLevel="1">
@@ -12938,11 +12943,11 @@
       </c>
       <c r="N112" s="2">
         <f t="shared" si="11"/>
-        <v>80.070000000000007</v>
+        <v>77.16</v>
       </c>
       <c r="O112" s="1">
         <f t="shared" si="12"/>
-        <v>26699.972450000005</v>
+        <v>1135.5498399999999</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="15.6" outlineLevel="1">
@@ -12984,11 +12989,11 @@
       </c>
       <c r="N113" s="2">
         <f t="shared" si="11"/>
-        <v>80.88000000000001</v>
+        <v>77.940000000000012</v>
       </c>
       <c r="O113" s="1">
         <f t="shared" si="12"/>
-        <v>27245.507200000004</v>
+        <v>1156.1965400000001</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="15.6" outlineLevel="1">
@@ -13030,11 +13035,11 @@
       </c>
       <c r="N114" s="2">
         <f t="shared" si="11"/>
-        <v>81.69</v>
+        <v>78.72</v>
       </c>
       <c r="O114" s="1">
         <f t="shared" si="12"/>
-        <v>27796.558050000003</v>
+        <v>1177.02576</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="15.6" outlineLevel="1">
@@ -13076,11 +13081,11 @@
       </c>
       <c r="N115" s="2">
         <f t="shared" si="11"/>
-        <v>82.5</v>
+        <v>79.5</v>
       </c>
       <c r="O115" s="1">
         <f t="shared" si="12"/>
-        <v>28353.125</v>
+        <v>1198.0374999999999</v>
       </c>
     </row>
   </sheetData>
